--- a/config_Release/fishmatch_ui.xlsx
+++ b/config_Release/fishmatch_ui.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
@@ -1911,10 +1911,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2042,16 +2042,16 @@
         <v>280</v>
       </c>
       <c r="I2" s="14">
-        <v>1593608100</v>
+        <v>1599049800</v>
       </c>
       <c r="J2" s="14">
-        <v>1593608400</v>
+        <v>1599051600</v>
       </c>
       <c r="K2" s="14">
-        <v>1591088427</v>
+        <v>1598889600</v>
       </c>
       <c r="L2" s="14">
-        <v>1593694800</v>
+        <v>1599062399</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>38</v>
@@ -2119,16 +2119,16 @@
         <v>280</v>
       </c>
       <c r="I3" s="14">
-        <v>1594212900</v>
+        <v>1599222600</v>
       </c>
       <c r="J3" s="14">
-        <v>1594213200</v>
+        <v>1599224400</v>
       </c>
       <c r="K3" s="14">
-        <v>1594212900</v>
+        <v>1599062400</v>
       </c>
       <c r="L3">
-        <v>1594299600</v>
+        <v>1599235199</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>38</v>
@@ -2196,16 +2196,16 @@
         <v>280</v>
       </c>
       <c r="I4" s="14">
-        <v>1594817700</v>
+        <v>1599481800</v>
       </c>
       <c r="J4" s="14">
-        <v>1594818000</v>
+        <v>1599483600</v>
       </c>
       <c r="K4" s="14">
-        <v>1594817700</v>
+        <v>1599235200</v>
       </c>
       <c r="L4">
-        <v>1594904400</v>
+        <v>1599494399</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>38</v>
@@ -2273,16 +2273,16 @@
         <v>280</v>
       </c>
       <c r="I5" s="14">
-        <v>1595422500</v>
+        <v>1599654600</v>
       </c>
       <c r="J5" s="14">
-        <v>1595422800</v>
+        <v>1599656400</v>
       </c>
       <c r="K5" s="14">
-        <v>1595422500</v>
+        <v>1599494400</v>
       </c>
       <c r="L5">
-        <v>1595509200</v>
+        <v>1599667199</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>38</v>
@@ -2350,16 +2350,16 @@
         <v>280</v>
       </c>
       <c r="I6" s="36">
-        <v>1596027300</v>
+        <v>1599827400</v>
       </c>
       <c r="J6" s="14">
-        <v>1596027600</v>
+        <v>1599829200</v>
       </c>
       <c r="K6" s="36">
-        <v>1596027300</v>
+        <v>1599667200</v>
       </c>
       <c r="L6">
-        <v>1596114000</v>
+        <v>1599839999</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>38</v>
@@ -2427,16 +2427,16 @@
         <v>280</v>
       </c>
       <c r="I7" s="36">
-        <v>1596632100</v>
+        <v>1600086600</v>
       </c>
       <c r="J7" s="14">
-        <v>1596632400</v>
+        <v>1600088400</v>
       </c>
       <c r="K7" s="36">
-        <v>1596632100</v>
+        <v>1599840000</v>
       </c>
       <c r="L7">
-        <v>1596718800</v>
+        <v>1600099199</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>38</v>
@@ -2504,16 +2504,16 @@
         <v>280</v>
       </c>
       <c r="I8" s="36">
-        <v>1597236900</v>
+        <v>1600259400</v>
       </c>
       <c r="J8" s="14">
-        <v>1597237200</v>
+        <v>1600261200</v>
       </c>
       <c r="K8" s="36">
-        <v>1597236900</v>
+        <v>1600099200</v>
       </c>
       <c r="L8">
-        <v>1597323600</v>
+        <v>1600271999</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>38</v>
@@ -2581,16 +2581,16 @@
         <v>280</v>
       </c>
       <c r="I9" s="36">
-        <v>1597841700</v>
+        <v>1600432200</v>
       </c>
       <c r="J9" s="14">
-        <v>1597842000</v>
+        <v>1600434000</v>
       </c>
       <c r="K9" s="36">
-        <v>1597841700</v>
+        <v>1600272000</v>
       </c>
       <c r="L9">
-        <v>1597928400</v>
+        <v>1600444799</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>38</v>
@@ -2658,16 +2658,16 @@
         <v>280</v>
       </c>
       <c r="I10" s="36">
-        <v>1598446500</v>
+        <v>1600691400</v>
       </c>
       <c r="J10" s="14">
-        <v>1598446800</v>
+        <v>1600693200</v>
       </c>
       <c r="K10" s="36">
-        <v>1598446500</v>
+        <v>1600444800</v>
       </c>
       <c r="L10">
-        <v>1598533200</v>
+        <v>1600703999</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>38</v>
@@ -2735,16 +2735,16 @@
         <v>280</v>
       </c>
       <c r="I11" s="36">
-        <v>1599051300</v>
+        <v>1600864200</v>
       </c>
       <c r="J11" s="14">
-        <v>1599051600</v>
+        <v>1600866000</v>
       </c>
       <c r="K11" s="36">
-        <v>1599051300</v>
+        <v>1600704000</v>
       </c>
       <c r="L11">
-        <v>1599138000</v>
+        <v>1600876799</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>38</v>
@@ -2812,16 +2812,16 @@
         <v>280</v>
       </c>
       <c r="I12" s="8">
-        <v>1599656100</v>
+        <v>1601037000</v>
       </c>
       <c r="J12" s="14">
-        <v>1599656400</v>
+        <v>1601038800</v>
       </c>
       <c r="K12" s="8">
-        <v>1599656100</v>
+        <v>1600876800</v>
       </c>
       <c r="L12" s="8">
-        <v>1599742800</v>
+        <v>1601049599</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>38</v>
@@ -2889,16 +2889,16 @@
         <v>280</v>
       </c>
       <c r="I13" s="8">
-        <v>1600260900</v>
+        <v>1601296200</v>
       </c>
       <c r="J13" s="14">
-        <v>1600261200</v>
+        <v>1601298000</v>
       </c>
       <c r="K13" s="8">
-        <v>1600260900</v>
+        <v>1601049600</v>
       </c>
       <c r="L13" s="8">
-        <v>1600347600</v>
+        <v>1601308799</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>38</v>
@@ -2966,16 +2966,16 @@
         <v>280</v>
       </c>
       <c r="I14" s="8">
-        <v>1600865700</v>
+        <v>1601469000</v>
       </c>
       <c r="J14" s="14">
-        <v>1600866000</v>
+        <v>1601470800</v>
       </c>
       <c r="K14" s="8">
-        <v>1600865700</v>
+        <v>1601308800</v>
       </c>
       <c r="L14" s="8">
-        <v>1600952400</v>
+        <v>1601481599</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>38</v>
@@ -3043,16 +3043,16 @@
         <v>280</v>
       </c>
       <c r="I15" s="8">
-        <v>1601470500</v>
+        <v>1601641800</v>
       </c>
       <c r="J15" s="14">
-        <v>1601470800</v>
+        <v>1601643600</v>
       </c>
       <c r="K15" s="8">
-        <v>1601470500</v>
+        <v>1601481600</v>
       </c>
       <c r="L15" s="8">
-        <v>1601557200</v>
+        <v>1601654399</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>38</v>
@@ -3120,16 +3120,16 @@
         <v>280</v>
       </c>
       <c r="I16" s="8">
-        <v>1602075300</v>
+        <v>1601901000</v>
       </c>
       <c r="J16" s="14">
-        <v>1602075600</v>
+        <v>1601902800</v>
       </c>
       <c r="K16" s="8">
-        <v>1602075300</v>
+        <v>1601654400</v>
       </c>
       <c r="L16" s="8">
-        <v>1602162000</v>
+        <v>1601913599</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>38</v>
@@ -3197,16 +3197,16 @@
         <v>280</v>
       </c>
       <c r="I17" s="8">
-        <v>1602680100</v>
+        <v>1602073800</v>
       </c>
       <c r="J17" s="14">
-        <v>1602680400</v>
+        <v>1602075600</v>
       </c>
       <c r="K17" s="8">
-        <v>1602680100</v>
+        <v>1601913600</v>
       </c>
       <c r="L17" s="8">
-        <v>1602766800</v>
+        <v>1602086399</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>38</v>
@@ -3274,16 +3274,16 @@
         <v>280</v>
       </c>
       <c r="I18" s="8">
-        <v>1603284900</v>
+        <v>1602246600</v>
       </c>
       <c r="J18" s="14">
-        <v>1603285200</v>
+        <v>1602248400</v>
       </c>
       <c r="K18" s="8">
-        <v>1603284900</v>
+        <v>1602086400</v>
       </c>
       <c r="L18" s="8">
-        <v>1603371600</v>
+        <v>1602259199</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>38</v>
@@ -3351,16 +3351,16 @@
         <v>280</v>
       </c>
       <c r="I19" s="8">
-        <v>1603889700</v>
+        <v>1602505800</v>
       </c>
       <c r="J19" s="14">
-        <v>1603890000</v>
+        <v>1602507600</v>
       </c>
       <c r="K19" s="8">
-        <v>1603889700</v>
+        <v>1602259200</v>
       </c>
       <c r="L19" s="8">
-        <v>1603976400</v>
+        <v>1602518399</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>38</v>
@@ -3428,16 +3428,16 @@
         <v>280</v>
       </c>
       <c r="I20" s="8">
-        <v>1604494500</v>
+        <v>1602678600</v>
       </c>
       <c r="J20" s="14">
-        <v>1604494800</v>
+        <v>1602680400</v>
       </c>
       <c r="K20" s="8">
-        <v>1604494500</v>
+        <v>1602518400</v>
       </c>
       <c r="L20" s="8">
-        <v>1604581200</v>
+        <v>1602691199</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>38</v>
@@ -3505,16 +3505,16 @@
         <v>280</v>
       </c>
       <c r="I21" s="8">
-        <v>1605099300</v>
+        <v>1602851400</v>
       </c>
       <c r="J21" s="14">
-        <v>1605099600</v>
+        <v>1602853200</v>
       </c>
       <c r="K21" s="8">
-        <v>1605099300</v>
+        <v>1602691200</v>
       </c>
       <c r="L21" s="8">
-        <v>1605186000</v>
+        <v>1602863999</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>38</v>
@@ -3582,16 +3582,16 @@
         <v>280</v>
       </c>
       <c r="I22" s="8">
-        <v>1605704100</v>
+        <v>1603110600</v>
       </c>
       <c r="J22" s="14">
-        <v>1605704400</v>
+        <v>1603112400</v>
       </c>
       <c r="K22" s="8">
-        <v>1605704100</v>
+        <v>1602864000</v>
       </c>
       <c r="L22" s="8">
-        <v>1605790800</v>
+        <v>1603123199</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>38</v>
@@ -3659,16 +3659,16 @@
         <v>280</v>
       </c>
       <c r="I23" s="8">
-        <v>1606308900</v>
+        <v>1603283400</v>
       </c>
       <c r="J23" s="14">
-        <v>1606309200</v>
+        <v>1603285200</v>
       </c>
       <c r="K23" s="8">
-        <v>1606308900</v>
+        <v>1603123200</v>
       </c>
       <c r="L23" s="8">
-        <v>1606395600</v>
+        <v>1603295999</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>38</v>
@@ -3736,16 +3736,16 @@
         <v>280</v>
       </c>
       <c r="I24" s="8">
-        <v>1606913700</v>
+        <v>1603456200</v>
       </c>
       <c r="J24" s="14">
-        <v>1606914000</v>
+        <v>1603458000</v>
       </c>
       <c r="K24" s="8">
-        <v>1606913700</v>
+        <v>1603296000</v>
       </c>
       <c r="L24" s="8">
-        <v>1607000400</v>
+        <v>1603468799</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>38</v>
@@ -3813,16 +3813,16 @@
         <v>280</v>
       </c>
       <c r="I25" s="8">
-        <v>1607518500</v>
+        <v>1603715400</v>
       </c>
       <c r="J25" s="14">
-        <v>1607518800</v>
+        <v>1603717200</v>
       </c>
       <c r="K25" s="8">
-        <v>1607518500</v>
+        <v>1603468800</v>
       </c>
       <c r="L25" s="8">
-        <v>1607605200</v>
+        <v>1603727999</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>38</v>
@@ -3890,16 +3890,16 @@
         <v>280</v>
       </c>
       <c r="I26" s="8">
-        <v>1608123300</v>
+        <v>1603888200</v>
       </c>
       <c r="J26" s="14">
-        <v>1608123600</v>
+        <v>1603890000</v>
       </c>
       <c r="K26" s="8">
-        <v>1608123300</v>
+        <v>1603728000</v>
       </c>
       <c r="L26" s="8">
-        <v>1608210000</v>
+        <v>1603900799</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>38</v>
@@ -3967,16 +3967,16 @@
         <v>280</v>
       </c>
       <c r="I27" s="8">
-        <v>1608728100</v>
+        <v>1604061000</v>
       </c>
       <c r="J27" s="14">
-        <v>1608728400</v>
+        <v>1604062800</v>
       </c>
       <c r="K27" s="8">
-        <v>1608728100</v>
+        <v>1603900800</v>
       </c>
       <c r="L27" s="8">
-        <v>1608814800</v>
+        <v>1604073599</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>38</v>
@@ -4044,16 +4044,16 @@
         <v>280</v>
       </c>
       <c r="I28" s="8">
-        <v>1609332900</v>
+        <v>1604320200</v>
       </c>
       <c r="J28" s="14">
-        <v>1609333200</v>
+        <v>1604322000</v>
       </c>
       <c r="K28" s="8">
-        <v>1609332900</v>
+        <v>1604073600</v>
       </c>
       <c r="L28" s="8">
-        <v>1609419600</v>
+        <v>1604332799</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>38</v>
@@ -4121,16 +4121,16 @@
         <v>280</v>
       </c>
       <c r="I29" s="8">
-        <v>1609937700</v>
+        <v>1604493000</v>
       </c>
       <c r="J29" s="14">
-        <v>1609938000</v>
+        <v>1604494800</v>
       </c>
       <c r="K29" s="8">
-        <v>1609937700</v>
+        <v>1604332800</v>
       </c>
       <c r="L29" s="8">
-        <v>1610024400</v>
+        <v>1604505599</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>38</v>
@@ -4198,16 +4198,16 @@
         <v>280</v>
       </c>
       <c r="I30" s="8">
-        <v>1610542500</v>
+        <v>1604665800</v>
       </c>
       <c r="J30" s="14">
-        <v>1610542800</v>
+        <v>1604667600</v>
       </c>
       <c r="K30" s="8">
-        <v>1610542500</v>
+        <v>1604505600</v>
       </c>
       <c r="L30" s="8">
-        <v>1610629200</v>
+        <v>1604678399</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>38</v>
@@ -4275,16 +4275,16 @@
         <v>280</v>
       </c>
       <c r="I31" s="8">
-        <v>1611147300</v>
+        <v>1604925000</v>
       </c>
       <c r="J31" s="14">
-        <v>1611147600</v>
+        <v>1604926800</v>
       </c>
       <c r="K31" s="8">
-        <v>1611147300</v>
+        <v>1604678400</v>
       </c>
       <c r="L31" s="8">
-        <v>1611234000</v>
+        <v>1604937599</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>38</v>
@@ -4352,16 +4352,16 @@
         <v>280</v>
       </c>
       <c r="I32" s="8">
-        <v>1611752100</v>
+        <v>1605097800</v>
       </c>
       <c r="J32" s="14">
-        <v>1611752400</v>
+        <v>1605099600</v>
       </c>
       <c r="K32" s="8">
-        <v>1611752100</v>
+        <v>1604937600</v>
       </c>
       <c r="L32" s="8">
-        <v>1611838800</v>
+        <v>1605110399</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>38</v>
@@ -4429,16 +4429,16 @@
         <v>280</v>
       </c>
       <c r="I33" s="8">
-        <v>1612356900</v>
+        <v>1605270600</v>
       </c>
       <c r="J33" s="14">
-        <v>1612357200</v>
+        <v>1605272400</v>
       </c>
       <c r="K33" s="8">
-        <v>1612356900</v>
+        <v>1605110400</v>
       </c>
       <c r="L33" s="8">
-        <v>1612443600</v>
+        <v>1605283199</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>38</v>
@@ -4506,16 +4506,16 @@
         <v>280</v>
       </c>
       <c r="I34" s="8">
-        <v>1612961700</v>
+        <v>1605529800</v>
       </c>
       <c r="J34" s="14">
-        <v>1612962000</v>
+        <v>1605531600</v>
       </c>
       <c r="K34" s="8">
-        <v>1612961700</v>
+        <v>1605283200</v>
       </c>
       <c r="L34" s="8">
-        <v>1613048400</v>
+        <v>1605542399</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>38</v>
@@ -4583,16 +4583,16 @@
         <v>280</v>
       </c>
       <c r="I35" s="8">
-        <v>1613566500</v>
+        <v>1605702600</v>
       </c>
       <c r="J35" s="14">
-        <v>1613566800</v>
+        <v>1605704400</v>
       </c>
       <c r="K35" s="8">
-        <v>1613566500</v>
+        <v>1605542400</v>
       </c>
       <c r="L35" s="8">
-        <v>1613653200</v>
+        <v>1605715199</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>38</v>
@@ -4660,16 +4660,16 @@
         <v>280</v>
       </c>
       <c r="I36" s="8">
-        <v>1614171300</v>
+        <v>1605875400</v>
       </c>
       <c r="J36" s="14">
-        <v>1614171600</v>
+        <v>1605877200</v>
       </c>
       <c r="K36" s="8">
-        <v>1614171300</v>
+        <v>1605715200</v>
       </c>
       <c r="L36" s="8">
-        <v>1614258000</v>
+        <v>1605887999</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>38</v>
@@ -4737,16 +4737,16 @@
         <v>280</v>
       </c>
       <c r="I37" s="8">
-        <v>1614776100</v>
+        <v>1606134600</v>
       </c>
       <c r="J37" s="14">
-        <v>1614776400</v>
+        <v>1606136400</v>
       </c>
       <c r="K37" s="8">
-        <v>1614776100</v>
+        <v>1605888000</v>
       </c>
       <c r="L37" s="8">
-        <v>1614862800</v>
+        <v>1606147199</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>38</v>
@@ -4814,16 +4814,16 @@
         <v>280</v>
       </c>
       <c r="I38" s="8">
-        <v>1615380900</v>
+        <v>1606307400</v>
       </c>
       <c r="J38" s="14">
-        <v>1615381200</v>
+        <v>1606309200</v>
       </c>
       <c r="K38" s="8">
-        <v>1615380900</v>
+        <v>1606147200</v>
       </c>
       <c r="L38" s="8">
-        <v>1615467600</v>
+        <v>1606319999</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>38</v>
@@ -4891,16 +4891,16 @@
         <v>280</v>
       </c>
       <c r="I39" s="8">
-        <v>1615985700</v>
+        <v>1606480200</v>
       </c>
       <c r="J39" s="14">
-        <v>1615986000</v>
+        <v>1606482000</v>
       </c>
       <c r="K39" s="8">
-        <v>1615985700</v>
+        <v>1606320000</v>
       </c>
       <c r="L39" s="8">
-        <v>1616072400</v>
+        <v>1606492799</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>38</v>
@@ -4968,16 +4968,16 @@
         <v>280</v>
       </c>
       <c r="I40" s="8">
-        <v>1616590500</v>
+        <v>1606739400</v>
       </c>
       <c r="J40" s="14">
-        <v>1616590800</v>
+        <v>1606741200</v>
       </c>
       <c r="K40" s="8">
-        <v>1616590500</v>
+        <v>1606492800</v>
       </c>
       <c r="L40" s="8">
-        <v>1616677200</v>
+        <v>1606751999</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>38</v>
@@ -5045,16 +5045,16 @@
         <v>280</v>
       </c>
       <c r="I41" s="8">
-        <v>1617195300</v>
+        <v>1606912200</v>
       </c>
       <c r="J41" s="14">
-        <v>1617195600</v>
+        <v>1606914000</v>
       </c>
       <c r="K41" s="8">
-        <v>1617195300</v>
+        <v>1606752000</v>
       </c>
       <c r="L41" s="8">
-        <v>1617282000</v>
+        <v>1606924799</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>38</v>
@@ -5122,16 +5122,16 @@
         <v>280</v>
       </c>
       <c r="I42" s="8">
-        <v>1617800100</v>
+        <v>1607085000</v>
       </c>
       <c r="J42" s="14">
-        <v>1617800400</v>
+        <v>1607086800</v>
       </c>
       <c r="K42" s="8">
-        <v>1617800100</v>
+        <v>1606924800</v>
       </c>
       <c r="L42" s="8">
-        <v>1617886800</v>
+        <v>1607097599</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>38</v>
@@ -5199,16 +5199,16 @@
         <v>280</v>
       </c>
       <c r="I43" s="8">
-        <v>1618404900</v>
+        <v>1607344200</v>
       </c>
       <c r="J43" s="14">
-        <v>1618405200</v>
+        <v>1607346000</v>
       </c>
       <c r="K43" s="8">
-        <v>1618404900</v>
+        <v>1607097600</v>
       </c>
       <c r="L43" s="8">
-        <v>1618491600</v>
+        <v>1607356799</v>
       </c>
       <c r="M43" s="16" t="s">
         <v>38</v>
@@ -5276,16 +5276,16 @@
         <v>280</v>
       </c>
       <c r="I44" s="8">
-        <v>1619009700</v>
+        <v>1607517000</v>
       </c>
       <c r="J44" s="14">
-        <v>1619010000</v>
+        <v>1607518800</v>
       </c>
       <c r="K44" s="8">
-        <v>1619009700</v>
+        <v>1607356800</v>
       </c>
       <c r="L44" s="8">
-        <v>1619096400</v>
+        <v>1607529599</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>38</v>
@@ -5353,16 +5353,16 @@
         <v>280</v>
       </c>
       <c r="I45" s="8">
-        <v>1619614500</v>
+        <v>1607689800</v>
       </c>
       <c r="J45" s="14">
-        <v>1619614800</v>
+        <v>1607691600</v>
       </c>
       <c r="K45" s="8">
-        <v>1619614500</v>
+        <v>1607529600</v>
       </c>
       <c r="L45" s="8">
-        <v>1619701200</v>
+        <v>1607702399</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>38</v>
@@ -5430,16 +5430,16 @@
         <v>280</v>
       </c>
       <c r="I46" s="8">
-        <v>1620219300</v>
+        <v>1607949000</v>
       </c>
       <c r="J46" s="14">
-        <v>1620219600</v>
+        <v>1607950800</v>
       </c>
       <c r="K46" s="8">
-        <v>1620219300</v>
+        <v>1607702400</v>
       </c>
       <c r="L46" s="8">
-        <v>1620306000</v>
+        <v>1607961599</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>38</v>
@@ -5507,16 +5507,16 @@
         <v>280</v>
       </c>
       <c r="I47" s="8">
-        <v>1620824100</v>
+        <v>1608121800</v>
       </c>
       <c r="J47" s="14">
-        <v>1620824400</v>
+        <v>1608123600</v>
       </c>
       <c r="K47" s="8">
-        <v>1620824100</v>
+        <v>1607961600</v>
       </c>
       <c r="L47" s="8">
-        <v>1620910800</v>
+        <v>1608134399</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>38</v>
@@ -5584,16 +5584,16 @@
         <v>280</v>
       </c>
       <c r="I48" s="8">
-        <v>1621428900</v>
+        <v>1608294600</v>
       </c>
       <c r="J48" s="14">
-        <v>1621429200</v>
+        <v>1608296400</v>
       </c>
       <c r="K48" s="8">
-        <v>1621428900</v>
+        <v>1608134400</v>
       </c>
       <c r="L48" s="8">
-        <v>1621515600</v>
+        <v>1608307199</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>38</v>
@@ -5661,16 +5661,16 @@
         <v>280</v>
       </c>
       <c r="I49" s="8">
-        <v>1622033700</v>
+        <v>1608553800</v>
       </c>
       <c r="J49" s="14">
-        <v>1622034000</v>
+        <v>1608555600</v>
       </c>
       <c r="K49" s="8">
-        <v>1622033700</v>
+        <v>1608307200</v>
       </c>
       <c r="L49" s="8">
-        <v>1622120400</v>
+        <v>1608566399</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>38</v>
@@ -5738,16 +5738,16 @@
         <v>280</v>
       </c>
       <c r="I50" s="8">
-        <v>1622638500</v>
+        <v>1608726600</v>
       </c>
       <c r="J50" s="14">
-        <v>1622638800</v>
+        <v>1608728400</v>
       </c>
       <c r="K50" s="8">
-        <v>1622638500</v>
+        <v>1608566400</v>
       </c>
       <c r="L50" s="8">
-        <v>1622725200</v>
+        <v>1608739199</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>38</v>
@@ -5815,16 +5815,16 @@
         <v>280</v>
       </c>
       <c r="I51" s="8">
-        <v>1623243300</v>
+        <v>1608899400</v>
       </c>
       <c r="J51" s="31">
-        <v>1623243600</v>
+        <v>1608901200</v>
       </c>
       <c r="K51" s="8">
-        <v>1623243300</v>
+        <v>1608739200</v>
       </c>
       <c r="L51" s="30">
-        <v>1623330000</v>
+        <v>1608911999</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>38</v>
@@ -5892,16 +5892,16 @@
         <v>280</v>
       </c>
       <c r="I52" s="8">
-        <v>1623848100</v>
+        <v>1609158600</v>
       </c>
       <c r="J52" s="14">
-        <v>1623848400</v>
+        <v>1609160400</v>
       </c>
       <c r="K52" s="8">
-        <v>1623848100</v>
+        <v>1608912000</v>
       </c>
       <c r="L52" s="8">
-        <v>1623934800</v>
+        <v>1609171199</v>
       </c>
       <c r="M52" s="16" t="s">
         <v>38</v>
@@ -5969,16 +5969,16 @@
         <v>280</v>
       </c>
       <c r="I53" s="8">
-        <v>1624452900</v>
+        <v>1609331400</v>
       </c>
       <c r="J53" s="14">
-        <v>1624453200</v>
+        <v>1609333200</v>
       </c>
       <c r="K53" s="8">
-        <v>1624452900</v>
+        <v>1609171200</v>
       </c>
       <c r="L53" s="8">
-        <v>1624539600</v>
+        <v>1609343999</v>
       </c>
       <c r="M53" s="16" t="s">
         <v>38</v>
@@ -6046,16 +6046,16 @@
         <v>280</v>
       </c>
       <c r="I54" s="8">
-        <v>1625057700</v>
+        <v>1609504200</v>
       </c>
       <c r="J54" s="14">
-        <v>1625058000</v>
+        <v>1609506000</v>
       </c>
       <c r="K54" s="8">
-        <v>1625057700</v>
+        <v>1609344000</v>
       </c>
       <c r="L54" s="8">
-        <v>1625144400</v>
+        <v>1609516799</v>
       </c>
       <c r="M54" s="16" t="s">
         <v>38</v>
@@ -6123,16 +6123,16 @@
         <v>280</v>
       </c>
       <c r="I55" s="8">
-        <v>1625662500</v>
+        <v>1609763400</v>
       </c>
       <c r="J55" s="14">
-        <v>1625662800</v>
+        <v>1609765200</v>
       </c>
       <c r="K55" s="8">
-        <v>1625662500</v>
+        <v>1609516800</v>
       </c>
       <c r="L55" s="8">
-        <v>1625749200</v>
+        <v>1609775999</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>38</v>
@@ -6200,16 +6200,16 @@
         <v>280</v>
       </c>
       <c r="I56" s="8">
-        <v>1626267300</v>
+        <v>1609936200</v>
       </c>
       <c r="J56" s="14">
-        <v>1626267600</v>
+        <v>1609938000</v>
       </c>
       <c r="K56" s="8">
-        <v>1626267300</v>
+        <v>1609776000</v>
       </c>
       <c r="L56" s="8">
-        <v>1626354000</v>
+        <v>1609948799</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>38</v>
@@ -6277,16 +6277,16 @@
         <v>280</v>
       </c>
       <c r="I57" s="8">
-        <v>1626872100</v>
+        <v>1610109000</v>
       </c>
       <c r="J57" s="14">
-        <v>1626872400</v>
+        <v>1610110800</v>
       </c>
       <c r="K57" s="8">
-        <v>1626872100</v>
+        <v>1609948800</v>
       </c>
       <c r="L57" s="8">
-        <v>1626958800</v>
+        <v>1610121599</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>38</v>
@@ -6354,16 +6354,16 @@
         <v>280</v>
       </c>
       <c r="I58" s="8">
-        <v>1627476900</v>
+        <v>1610368200</v>
       </c>
       <c r="J58" s="14">
-        <v>1627477200</v>
+        <v>1610370000</v>
       </c>
       <c r="K58" s="8">
-        <v>1627476900</v>
+        <v>1610121600</v>
       </c>
       <c r="L58" s="8">
-        <v>1627563600</v>
+        <v>1610380799</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>38</v>
@@ -6431,16 +6431,16 @@
         <v>280</v>
       </c>
       <c r="I59" s="8">
-        <v>1628081700</v>
+        <v>1610541000</v>
       </c>
       <c r="J59" s="14">
-        <v>1628082000</v>
+        <v>1610542800</v>
       </c>
       <c r="K59" s="8">
-        <v>1628081700</v>
+        <v>1610380800</v>
       </c>
       <c r="L59" s="8">
-        <v>1628168400</v>
+        <v>1610553599</v>
       </c>
       <c r="M59" s="16" t="s">
         <v>38</v>
@@ -6508,16 +6508,16 @@
         <v>280</v>
       </c>
       <c r="I60" s="8">
-        <v>1628686500</v>
+        <v>1610713800</v>
       </c>
       <c r="J60" s="14">
-        <v>1628686800</v>
+        <v>1610715600</v>
       </c>
       <c r="K60" s="8">
-        <v>1628686500</v>
+        <v>1610553600</v>
       </c>
       <c r="L60" s="8">
-        <v>1628773200</v>
+        <v>1610726399</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>38</v>
@@ -6585,16 +6585,16 @@
         <v>280</v>
       </c>
       <c r="I61" s="8">
-        <v>1629291300</v>
+        <v>1610973000</v>
       </c>
       <c r="J61" s="14">
-        <v>1629291600</v>
+        <v>1610974800</v>
       </c>
       <c r="K61" s="8">
-        <v>1629291300</v>
+        <v>1610726400</v>
       </c>
       <c r="L61" s="8">
-        <v>1629378000</v>
+        <v>1610985599</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>38</v>
@@ -6662,16 +6662,16 @@
         <v>280</v>
       </c>
       <c r="I62" s="8">
-        <v>1629896100</v>
+        <v>1611145800</v>
       </c>
       <c r="J62" s="14">
-        <v>1629896400</v>
+        <v>1611147600</v>
       </c>
       <c r="K62" s="8">
-        <v>1629896100</v>
+        <v>1610985600</v>
       </c>
       <c r="L62" s="8">
-        <v>1629982800</v>
+        <v>1611158399</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>38</v>
@@ -6739,16 +6739,16 @@
         <v>280</v>
       </c>
       <c r="I63" s="8">
-        <v>1630500900</v>
+        <v>1611318600</v>
       </c>
       <c r="J63" s="14">
-        <v>1630501200</v>
+        <v>1611320400</v>
       </c>
       <c r="K63" s="8">
-        <v>1630500900</v>
+        <v>1611158400</v>
       </c>
       <c r="L63" s="8">
-        <v>1630587600</v>
+        <v>1611331199</v>
       </c>
       <c r="M63" s="16" t="s">
         <v>38</v>
@@ -6816,16 +6816,16 @@
         <v>280</v>
       </c>
       <c r="I64" s="8">
-        <v>1631105700</v>
+        <v>1611577800</v>
       </c>
       <c r="J64" s="14">
-        <v>1631106000</v>
+        <v>1611579600</v>
       </c>
       <c r="K64" s="8">
-        <v>1631105700</v>
+        <v>1611331200</v>
       </c>
       <c r="L64" s="8">
-        <v>1631192400</v>
+        <v>1611590399</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>38</v>
@@ -6893,16 +6893,16 @@
         <v>280</v>
       </c>
       <c r="I65" s="8">
-        <v>1631710500</v>
+        <v>1611750600</v>
       </c>
       <c r="J65" s="14">
-        <v>1631710800</v>
+        <v>1611752400</v>
       </c>
       <c r="K65" s="8">
-        <v>1631710500</v>
+        <v>1611590400</v>
       </c>
       <c r="L65" s="8">
-        <v>1631797200</v>
+        <v>1611763199</v>
       </c>
       <c r="M65" s="16" t="s">
         <v>38</v>
@@ -6970,16 +6970,16 @@
         <v>280</v>
       </c>
       <c r="I66" s="8">
-        <v>1632315300</v>
+        <v>1611923400</v>
       </c>
       <c r="J66" s="14">
-        <v>1632315600</v>
+        <v>1611925200</v>
       </c>
       <c r="K66" s="8">
-        <v>1632315300</v>
+        <v>1611763200</v>
       </c>
       <c r="L66" s="8">
-        <v>1632402000</v>
+        <v>1611935999</v>
       </c>
       <c r="M66" s="16" t="s">
         <v>38</v>
@@ -7047,16 +7047,16 @@
         <v>280</v>
       </c>
       <c r="I67" s="8">
-        <v>1632920100</v>
+        <v>1612182600</v>
       </c>
       <c r="J67" s="14">
-        <v>1632920400</v>
+        <v>1612184400</v>
       </c>
       <c r="K67" s="8">
-        <v>1632920100</v>
+        <v>1611936000</v>
       </c>
       <c r="L67" s="8">
-        <v>1633006800</v>
+        <v>1612195199</v>
       </c>
       <c r="M67" s="16" t="s">
         <v>38</v>
@@ -7124,16 +7124,16 @@
         <v>280</v>
       </c>
       <c r="I68" s="8">
-        <v>1633524900</v>
+        <v>1612355400</v>
       </c>
       <c r="J68" s="14">
-        <v>1633525200</v>
+        <v>1612357200</v>
       </c>
       <c r="K68" s="8">
-        <v>1633524900</v>
+        <v>1612195200</v>
       </c>
       <c r="L68" s="8">
-        <v>1633611600</v>
+        <v>1612367999</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>38</v>
@@ -7201,16 +7201,16 @@
         <v>280</v>
       </c>
       <c r="I69" s="8">
-        <v>1634129700</v>
+        <v>1612528200</v>
       </c>
       <c r="J69" s="14">
-        <v>1634130000</v>
+        <v>1612530000</v>
       </c>
       <c r="K69" s="8">
-        <v>1634129700</v>
+        <v>1612368000</v>
       </c>
       <c r="L69" s="8">
-        <v>1634216400</v>
+        <v>1612540799</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>38</v>
@@ -7278,16 +7278,16 @@
         <v>280</v>
       </c>
       <c r="I70" s="8">
-        <v>1634734500</v>
+        <v>1612787400</v>
       </c>
       <c r="J70" s="14">
-        <v>1634734800</v>
+        <v>1612789200</v>
       </c>
       <c r="K70" s="8">
-        <v>1634734500</v>
+        <v>1612540800</v>
       </c>
       <c r="L70" s="8">
-        <v>1634821200</v>
+        <v>1612799999</v>
       </c>
       <c r="M70" s="16" t="s">
         <v>38</v>
@@ -7355,16 +7355,16 @@
         <v>280</v>
       </c>
       <c r="I71" s="8">
-        <v>1635339300</v>
+        <v>1612960200</v>
       </c>
       <c r="J71" s="14">
-        <v>1635339600</v>
+        <v>1612962000</v>
       </c>
       <c r="K71" s="8">
-        <v>1635339300</v>
+        <v>1612800000</v>
       </c>
       <c r="L71" s="8">
-        <v>1635426000</v>
+        <v>1612972799</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>38</v>
@@ -7432,16 +7432,16 @@
         <v>280</v>
       </c>
       <c r="I72" s="8">
-        <v>1635944100</v>
+        <v>1613133000</v>
       </c>
       <c r="J72" s="14">
-        <v>1635944400</v>
+        <v>1613134800</v>
       </c>
       <c r="K72" s="8">
-        <v>1635944100</v>
+        <v>1612972800</v>
       </c>
       <c r="L72" s="8">
-        <v>1636030800</v>
+        <v>1613145599</v>
       </c>
       <c r="M72" s="16" t="s">
         <v>38</v>
@@ -7509,16 +7509,16 @@
         <v>280</v>
       </c>
       <c r="I73" s="8">
-        <v>1636548900</v>
+        <v>1613392200</v>
       </c>
       <c r="J73" s="14">
-        <v>1636549200</v>
+        <v>1613394000</v>
       </c>
       <c r="K73" s="8">
-        <v>1636548900</v>
+        <v>1613145600</v>
       </c>
       <c r="L73" s="8">
-        <v>1636635600</v>
+        <v>1613404799</v>
       </c>
       <c r="M73" s="16" t="s">
         <v>38</v>
@@ -7586,16 +7586,16 @@
         <v>280</v>
       </c>
       <c r="I74" s="8">
-        <v>1637153700</v>
+        <v>1613565000</v>
       </c>
       <c r="J74" s="14">
-        <v>1637154000</v>
+        <v>1613566800</v>
       </c>
       <c r="K74" s="8">
-        <v>1637153700</v>
+        <v>1613404800</v>
       </c>
       <c r="L74" s="8">
-        <v>1637240400</v>
+        <v>1613577599</v>
       </c>
       <c r="M74" s="16" t="s">
         <v>38</v>
@@ -7663,16 +7663,16 @@
         <v>280</v>
       </c>
       <c r="I75" s="8">
-        <v>1637758500</v>
+        <v>1613737800</v>
       </c>
       <c r="J75" s="14">
-        <v>1637758800</v>
+        <v>1613739600</v>
       </c>
       <c r="K75" s="8">
-        <v>1637758500</v>
+        <v>1613577600</v>
       </c>
       <c r="L75" s="8">
-        <v>1637845200</v>
+        <v>1613750399</v>
       </c>
       <c r="M75" s="16" t="s">
         <v>38</v>
@@ -7740,16 +7740,16 @@
         <v>280</v>
       </c>
       <c r="I76" s="8">
-        <v>1638363300</v>
+        <v>1613997000</v>
       </c>
       <c r="J76" s="14">
-        <v>1638363600</v>
+        <v>1613998800</v>
       </c>
       <c r="K76" s="8">
-        <v>1638363300</v>
+        <v>1613750400</v>
       </c>
       <c r="L76" s="8">
-        <v>1638450000</v>
+        <v>1614009599</v>
       </c>
       <c r="M76" s="16" t="s">
         <v>38</v>
@@ -7817,16 +7817,16 @@
         <v>280</v>
       </c>
       <c r="I77" s="8">
-        <v>1638968100</v>
+        <v>1614169800</v>
       </c>
       <c r="J77" s="14">
-        <v>1638968400</v>
+        <v>1614171600</v>
       </c>
       <c r="K77" s="8">
-        <v>1638968100</v>
+        <v>1614009600</v>
       </c>
       <c r="L77" s="8">
-        <v>1639054800</v>
+        <v>1614182399</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>38</v>
@@ -7894,16 +7894,16 @@
         <v>280</v>
       </c>
       <c r="I78" s="8">
-        <v>1639572900</v>
+        <v>1614342600</v>
       </c>
       <c r="J78" s="14">
-        <v>1639573200</v>
+        <v>1614344400</v>
       </c>
       <c r="K78" s="8">
-        <v>1639572900</v>
+        <v>1614182400</v>
       </c>
       <c r="L78" s="8">
-        <v>1639659600</v>
+        <v>1614355199</v>
       </c>
       <c r="M78" s="16" t="s">
         <v>38</v>
@@ -7971,16 +7971,16 @@
         <v>280</v>
       </c>
       <c r="I79" s="14">
-        <v>1640177700</v>
+        <v>1614601800</v>
       </c>
       <c r="J79" s="14">
-        <v>1640178000</v>
+        <v>1614603600</v>
       </c>
       <c r="K79" s="14">
-        <v>1640177700</v>
+        <v>1614355200</v>
       </c>
       <c r="L79" s="8">
-        <v>1640264400</v>
+        <v>1614614399</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>38</v>
@@ -8048,16 +8048,16 @@
         <v>280</v>
       </c>
       <c r="I80" s="14">
-        <v>1640782500</v>
+        <v>1614774600</v>
       </c>
       <c r="J80" s="14">
-        <v>1640782800</v>
+        <v>1614776400</v>
       </c>
       <c r="K80" s="14">
-        <v>1640782500</v>
+        <v>1614614400</v>
       </c>
       <c r="L80" s="8">
-        <v>1640869200</v>
+        <v>1614787199</v>
       </c>
       <c r="M80" s="16" t="s">
         <v>38</v>
@@ -8125,16 +8125,16 @@
         <v>280</v>
       </c>
       <c r="I81" s="14">
-        <v>1641387300</v>
+        <v>1614947400</v>
       </c>
       <c r="J81" s="14">
-        <v>1641387600</v>
+        <v>1614949200</v>
       </c>
       <c r="K81" s="14">
-        <v>1641387300</v>
+        <v>1614787200</v>
       </c>
       <c r="L81" s="8">
-        <v>1641474000</v>
+        <v>1614959999</v>
       </c>
       <c r="M81" s="16" t="s">
         <v>38</v>
@@ -8202,16 +8202,16 @@
         <v>280</v>
       </c>
       <c r="I82" s="14">
-        <v>1641992100</v>
+        <v>1615206600</v>
       </c>
       <c r="J82" s="14">
-        <v>1641992400</v>
+        <v>1615208400</v>
       </c>
       <c r="K82" s="14">
-        <v>1641992100</v>
+        <v>1614960000</v>
       </c>
       <c r="L82" s="8">
-        <v>1642078800</v>
+        <v>1615219199</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>38</v>
@@ -8279,16 +8279,16 @@
         <v>280</v>
       </c>
       <c r="I83" s="36">
-        <v>1642596900</v>
+        <v>1615379400</v>
       </c>
       <c r="J83" s="14">
-        <v>1642597200</v>
+        <v>1615381200</v>
       </c>
       <c r="K83" s="36">
-        <v>1642596900</v>
+        <v>1615219200</v>
       </c>
       <c r="L83" s="8">
-        <v>1642683600</v>
+        <v>1615391999</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>38</v>
@@ -8356,16 +8356,16 @@
         <v>280</v>
       </c>
       <c r="I84" s="36">
-        <v>1643201700</v>
+        <v>1615552200</v>
       </c>
       <c r="J84" s="14">
-        <v>1643202000</v>
+        <v>1615554000</v>
       </c>
       <c r="K84" s="36">
-        <v>1643201700</v>
+        <v>1615392000</v>
       </c>
       <c r="L84" s="8">
-        <v>1643288400</v>
+        <v>1615564799</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>38</v>
@@ -8433,16 +8433,16 @@
         <v>280</v>
       </c>
       <c r="I85" s="36">
-        <v>1643806500</v>
+        <v>1615811400</v>
       </c>
       <c r="J85" s="14">
-        <v>1643806800</v>
+        <v>1615813200</v>
       </c>
       <c r="K85" s="36">
-        <v>1643806500</v>
+        <v>1615564800</v>
       </c>
       <c r="L85" s="8">
-        <v>1643893200</v>
+        <v>1615823999</v>
       </c>
       <c r="M85" s="16" t="s">
         <v>38</v>
@@ -8510,16 +8510,16 @@
         <v>280</v>
       </c>
       <c r="I86" s="36">
-        <v>1644411300</v>
+        <v>1615984200</v>
       </c>
       <c r="J86" s="14">
-        <v>1644411600</v>
+        <v>1615986000</v>
       </c>
       <c r="K86" s="36">
-        <v>1644411300</v>
+        <v>1615824000</v>
       </c>
       <c r="L86" s="8">
-        <v>1644498000</v>
+        <v>1615996799</v>
       </c>
       <c r="M86" s="16" t="s">
         <v>38</v>
@@ -8587,16 +8587,16 @@
         <v>280</v>
       </c>
       <c r="I87" s="36">
-        <v>1645016100</v>
+        <v>1616157000</v>
       </c>
       <c r="J87" s="14">
-        <v>1645016400</v>
+        <v>1616158800</v>
       </c>
       <c r="K87" s="36">
-        <v>1645016100</v>
+        <v>1615996800</v>
       </c>
       <c r="L87" s="8">
-        <v>1645102800</v>
+        <v>1616169599</v>
       </c>
       <c r="M87" s="16" t="s">
         <v>38</v>
@@ -8664,16 +8664,16 @@
         <v>280</v>
       </c>
       <c r="I88" s="36">
-        <v>1645620900</v>
+        <v>1616416200</v>
       </c>
       <c r="J88" s="14">
-        <v>1645621200</v>
+        <v>1616418000</v>
       </c>
       <c r="K88" s="36">
-        <v>1645620900</v>
+        <v>1616169600</v>
       </c>
       <c r="L88" s="8">
-        <v>1645707600</v>
+        <v>1616428799</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>38</v>
@@ -8741,16 +8741,16 @@
         <v>280</v>
       </c>
       <c r="I89" s="8">
-        <v>1646225700</v>
+        <v>1616589000</v>
       </c>
       <c r="J89" s="14">
-        <v>1646226000</v>
+        <v>1616590800</v>
       </c>
       <c r="K89" s="8">
-        <v>1646225700</v>
+        <v>1616428800</v>
       </c>
       <c r="L89" s="8">
-        <v>1646312400</v>
+        <v>1616601599</v>
       </c>
       <c r="M89" s="16" t="s">
         <v>38</v>
@@ -8818,16 +8818,16 @@
         <v>280</v>
       </c>
       <c r="I90" s="8">
-        <v>1646830500</v>
+        <v>1616761800</v>
       </c>
       <c r="J90" s="14">
-        <v>1646830800</v>
+        <v>1616763600</v>
       </c>
       <c r="K90" s="8">
-        <v>1646830500</v>
+        <v>1616601600</v>
       </c>
       <c r="L90" s="8">
-        <v>1646917200</v>
+        <v>1616774399</v>
       </c>
       <c r="M90" s="16" t="s">
         <v>38</v>
@@ -8895,16 +8895,16 @@
         <v>280</v>
       </c>
       <c r="I91" s="8">
-        <v>1647435300</v>
+        <v>1617021000</v>
       </c>
       <c r="J91" s="14">
-        <v>1647435600</v>
+        <v>1617022800</v>
       </c>
       <c r="K91" s="8">
-        <v>1647435300</v>
+        <v>1616774400</v>
       </c>
       <c r="L91" s="8">
-        <v>1647522000</v>
+        <v>1617033599</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>38</v>
@@ -8972,16 +8972,16 @@
         <v>280</v>
       </c>
       <c r="I92" s="8">
-        <v>1648040100</v>
+        <v>1617193800</v>
       </c>
       <c r="J92" s="14">
-        <v>1648040400</v>
+        <v>1617195600</v>
       </c>
       <c r="K92" s="8">
-        <v>1648040100</v>
+        <v>1617033600</v>
       </c>
       <c r="L92" s="8">
-        <v>1648126800</v>
+        <v>1617206399</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>38</v>
@@ -9049,16 +9049,16 @@
         <v>280</v>
       </c>
       <c r="I93" s="8">
-        <v>1648644900</v>
+        <v>1617366600</v>
       </c>
       <c r="J93" s="14">
-        <v>1648645200</v>
+        <v>1617368400</v>
       </c>
       <c r="K93" s="8">
-        <v>1648644900</v>
+        <v>1617206400</v>
       </c>
       <c r="L93" s="8">
-        <v>1648731600</v>
+        <v>1617379199</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>38</v>
@@ -9126,16 +9126,16 @@
         <v>280</v>
       </c>
       <c r="I94" s="8">
-        <v>1649249700</v>
+        <v>1617625800</v>
       </c>
       <c r="J94" s="14">
-        <v>1649250000</v>
+        <v>1617627600</v>
       </c>
       <c r="K94" s="8">
-        <v>1649249700</v>
+        <v>1617379200</v>
       </c>
       <c r="L94" s="8">
-        <v>1649336400</v>
+        <v>1617638399</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>38</v>
@@ -9203,16 +9203,16 @@
         <v>280</v>
       </c>
       <c r="I95" s="8">
-        <v>1649854500</v>
+        <v>1617798600</v>
       </c>
       <c r="J95" s="14">
-        <v>1649854800</v>
+        <v>1617800400</v>
       </c>
       <c r="K95" s="8">
-        <v>1649854500</v>
+        <v>1617638400</v>
       </c>
       <c r="L95" s="8">
-        <v>1649941200</v>
+        <v>1617811199</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>38</v>
@@ -9280,16 +9280,16 @@
         <v>280</v>
       </c>
       <c r="I96" s="8">
-        <v>1650459300</v>
+        <v>1617971400</v>
       </c>
       <c r="J96" s="14">
-        <v>1650459600</v>
+        <v>1617973200</v>
       </c>
       <c r="K96" s="8">
-        <v>1650459300</v>
+        <v>1617811200</v>
       </c>
       <c r="L96" s="8">
-        <v>1650546000</v>
+        <v>1617983999</v>
       </c>
       <c r="M96" s="16" t="s">
         <v>38</v>
@@ -9357,16 +9357,16 @@
         <v>280</v>
       </c>
       <c r="I97" s="8">
-        <v>1651064100</v>
+        <v>1618230600</v>
       </c>
       <c r="J97" s="14">
-        <v>1651064400</v>
+        <v>1618232400</v>
       </c>
       <c r="K97" s="8">
-        <v>1651064100</v>
+        <v>1617984000</v>
       </c>
       <c r="L97" s="8">
-        <v>1651150800</v>
+        <v>1618243199</v>
       </c>
       <c r="M97" s="16" t="s">
         <v>38</v>
@@ -9434,16 +9434,16 @@
         <v>280</v>
       </c>
       <c r="I98" s="8">
-        <v>1651668900</v>
+        <v>1618403400</v>
       </c>
       <c r="J98" s="14">
-        <v>1651669200</v>
+        <v>1618405200</v>
       </c>
       <c r="K98" s="8">
-        <v>1651668900</v>
+        <v>1618243200</v>
       </c>
       <c r="L98" s="8">
-        <v>1651755600</v>
+        <v>1618415999</v>
       </c>
       <c r="M98" s="16" t="s">
         <v>38</v>
@@ -9511,16 +9511,16 @@
         <v>280</v>
       </c>
       <c r="I99" s="8">
-        <v>1652273700</v>
+        <v>1618576200</v>
       </c>
       <c r="J99" s="14">
-        <v>1652274000</v>
+        <v>1618578000</v>
       </c>
       <c r="K99" s="8">
-        <v>1652273700</v>
+        <v>1618416000</v>
       </c>
       <c r="L99" s="8">
-        <v>1652360400</v>
+        <v>1618588799</v>
       </c>
       <c r="M99" s="16" t="s">
         <v>38</v>
@@ -9588,16 +9588,16 @@
         <v>280</v>
       </c>
       <c r="I100" s="8">
-        <v>1652878500</v>
+        <v>1618835400</v>
       </c>
       <c r="J100" s="14">
-        <v>1652878800</v>
+        <v>1618837200</v>
       </c>
       <c r="K100" s="8">
-        <v>1652878500</v>
+        <v>1618588800</v>
       </c>
       <c r="L100" s="8">
-        <v>1652965200</v>
+        <v>1618847999</v>
       </c>
       <c r="M100" s="16" t="s">
         <v>38</v>
@@ -9665,16 +9665,16 @@
         <v>280</v>
       </c>
       <c r="I101" s="8">
-        <v>1653483300</v>
+        <v>1619008200</v>
       </c>
       <c r="J101" s="14">
-        <v>1653483600</v>
+        <v>1619010000</v>
       </c>
       <c r="K101" s="8">
-        <v>1653483300</v>
+        <v>1618848000</v>
       </c>
       <c r="L101" s="8">
-        <v>1653570000</v>
+        <v>1619020799</v>
       </c>
       <c r="M101" s="16" t="s">
         <v>38</v>
@@ -10366,10 +10366,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10496,16 +10496,16 @@
         <v>280</v>
       </c>
       <c r="I2" s="14">
-        <v>1593608100</v>
+        <v>1598963400</v>
       </c>
       <c r="J2" s="14">
-        <v>1593608400</v>
+        <v>1598965200</v>
       </c>
       <c r="K2" s="14">
-        <v>1591088427</v>
+        <v>1598716800</v>
       </c>
       <c r="L2" s="14">
-        <v>1593694800</v>
+        <v>1598975999</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>38</v>
@@ -10573,16 +10573,16 @@
         <v>280</v>
       </c>
       <c r="I3" s="14">
-        <v>1594212900</v>
+        <v>1599136200</v>
       </c>
       <c r="J3" s="14">
-        <v>1594213200</v>
+        <v>1599138000</v>
       </c>
       <c r="K3" s="14">
-        <v>1594212900</v>
+        <v>1598976000</v>
       </c>
       <c r="L3">
-        <v>1594299600</v>
+        <v>1599148799</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>38</v>
@@ -10650,16 +10650,16 @@
         <v>280</v>
       </c>
       <c r="I4" s="14">
-        <v>1594817700</v>
+        <v>1599309000</v>
       </c>
       <c r="J4" s="14">
-        <v>1594818000</v>
+        <v>1599310800</v>
       </c>
       <c r="K4" s="14">
-        <v>1594817700</v>
+        <v>1599148800</v>
       </c>
       <c r="L4">
-        <v>1594904400</v>
+        <v>1599321599</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>38</v>
@@ -10727,16 +10727,16 @@
         <v>280</v>
       </c>
       <c r="I5" s="14">
-        <v>1595422500</v>
+        <v>1599568200</v>
       </c>
       <c r="J5" s="14">
-        <v>1595422800</v>
+        <v>1599570000</v>
       </c>
       <c r="K5" s="14">
-        <v>1595422500</v>
+        <v>1599321600</v>
       </c>
       <c r="L5">
-        <v>1595509200</v>
+        <v>1599580799</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>38</v>
@@ -10804,16 +10804,16 @@
         <v>280</v>
       </c>
       <c r="I6" s="36">
-        <v>1596027300</v>
+        <v>1599741000</v>
       </c>
       <c r="J6" s="14">
-        <v>1596027600</v>
+        <v>1599742800</v>
       </c>
       <c r="K6" s="36">
-        <v>1596027300</v>
+        <v>1599580800</v>
       </c>
       <c r="L6">
-        <v>1596114000</v>
+        <v>1599753599</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>38</v>
@@ -10881,16 +10881,16 @@
         <v>280</v>
       </c>
       <c r="I7" s="36">
-        <v>1596632100</v>
+        <v>1599913800</v>
       </c>
       <c r="J7" s="14">
-        <v>1596632400</v>
+        <v>1599915600</v>
       </c>
       <c r="K7" s="36">
-        <v>1596632100</v>
+        <v>1599753600</v>
       </c>
       <c r="L7">
-        <v>1596718800</v>
+        <v>1599926399</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>38</v>
@@ -10958,16 +10958,16 @@
         <v>280</v>
       </c>
       <c r="I8" s="36">
-        <v>1597236900</v>
+        <v>1600173000</v>
       </c>
       <c r="J8" s="14">
-        <v>1597237200</v>
+        <v>1600174800</v>
       </c>
       <c r="K8" s="36">
-        <v>1597236900</v>
+        <v>1599926400</v>
       </c>
       <c r="L8">
-        <v>1597323600</v>
+        <v>1600185599</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>38</v>
@@ -11035,16 +11035,16 @@
         <v>280</v>
       </c>
       <c r="I9" s="36">
-        <v>1597841700</v>
+        <v>1600345800</v>
       </c>
       <c r="J9" s="14">
-        <v>1597842000</v>
+        <v>1600347600</v>
       </c>
       <c r="K9" s="36">
-        <v>1597841700</v>
+        <v>1600185600</v>
       </c>
       <c r="L9">
-        <v>1597928400</v>
+        <v>1600358399</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>38</v>
@@ -11112,16 +11112,16 @@
         <v>280</v>
       </c>
       <c r="I10" s="36">
-        <v>1598446500</v>
+        <v>1600518600</v>
       </c>
       <c r="J10" s="14">
-        <v>1598446800</v>
+        <v>1600520400</v>
       </c>
       <c r="K10" s="36">
-        <v>1598446500</v>
+        <v>1600358400</v>
       </c>
       <c r="L10">
-        <v>1598533200</v>
+        <v>1600531199</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>38</v>
@@ -11189,16 +11189,16 @@
         <v>280</v>
       </c>
       <c r="I11" s="36">
-        <v>1599051300</v>
+        <v>1600777800</v>
       </c>
       <c r="J11" s="14">
-        <v>1599051600</v>
+        <v>1600779600</v>
       </c>
       <c r="K11" s="36">
-        <v>1599051300</v>
+        <v>1600531200</v>
       </c>
       <c r="L11">
-        <v>1599138000</v>
+        <v>1600790399</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>38</v>
@@ -11266,16 +11266,16 @@
         <v>280</v>
       </c>
       <c r="I12" s="8">
-        <v>1599656100</v>
+        <v>1600950600</v>
       </c>
       <c r="J12" s="14">
-        <v>1599656400</v>
+        <v>1600952400</v>
       </c>
       <c r="K12" s="8">
-        <v>1599656100</v>
+        <v>1600790400</v>
       </c>
       <c r="L12" s="8">
-        <v>1599742800</v>
+        <v>1600963199</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>38</v>
@@ -11343,16 +11343,16 @@
         <v>280</v>
       </c>
       <c r="I13" s="8">
-        <v>1600260900</v>
+        <v>1601123400</v>
       </c>
       <c r="J13" s="14">
-        <v>1600261200</v>
+        <v>1601125200</v>
       </c>
       <c r="K13" s="8">
-        <v>1600260900</v>
+        <v>1600963200</v>
       </c>
       <c r="L13" s="8">
-        <v>1600347600</v>
+        <v>1601135999</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>38</v>
@@ -11420,16 +11420,16 @@
         <v>280</v>
       </c>
       <c r="I14" s="8">
-        <v>1600865700</v>
+        <v>1601382600</v>
       </c>
       <c r="J14" s="14">
-        <v>1600866000</v>
+        <v>1601384400</v>
       </c>
       <c r="K14" s="8">
-        <v>1600865700</v>
+        <v>1601136000</v>
       </c>
       <c r="L14" s="8">
-        <v>1600952400</v>
+        <v>1601395199</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>38</v>
@@ -11497,16 +11497,16 @@
         <v>280</v>
       </c>
       <c r="I15" s="8">
-        <v>1601470500</v>
+        <v>1601555400</v>
       </c>
       <c r="J15" s="14">
-        <v>1601470800</v>
+        <v>1601557200</v>
       </c>
       <c r="K15" s="8">
-        <v>1601470500</v>
+        <v>1601395200</v>
       </c>
       <c r="L15" s="8">
-        <v>1601557200</v>
+        <v>1601567999</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>38</v>
@@ -11574,16 +11574,16 @@
         <v>280</v>
       </c>
       <c r="I16" s="8">
-        <v>1602075300</v>
+        <v>1601728200</v>
       </c>
       <c r="J16" s="14">
-        <v>1602075600</v>
+        <v>1601730000</v>
       </c>
       <c r="K16" s="8">
-        <v>1602075300</v>
+        <v>1601568000</v>
       </c>
       <c r="L16" s="8">
-        <v>1602162000</v>
+        <v>1601740799</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>38</v>
@@ -11651,16 +11651,16 @@
         <v>280</v>
       </c>
       <c r="I17" s="8">
-        <v>1602680100</v>
+        <v>1601987400</v>
       </c>
       <c r="J17" s="14">
-        <v>1602680400</v>
+        <v>1601989200</v>
       </c>
       <c r="K17" s="8">
-        <v>1602680100</v>
+        <v>1601740800</v>
       </c>
       <c r="L17" s="8">
-        <v>1602766800</v>
+        <v>1601999999</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>38</v>
@@ -11728,16 +11728,16 @@
         <v>280</v>
       </c>
       <c r="I18" s="8">
-        <v>1603284900</v>
+        <v>1602160200</v>
       </c>
       <c r="J18" s="14">
-        <v>1603285200</v>
+        <v>1602162000</v>
       </c>
       <c r="K18" s="8">
-        <v>1603284900</v>
+        <v>1602000000</v>
       </c>
       <c r="L18" s="8">
-        <v>1603371600</v>
+        <v>1602172799</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>38</v>
@@ -11805,16 +11805,16 @@
         <v>280</v>
       </c>
       <c r="I19" s="8">
-        <v>1603889700</v>
+        <v>1602333000</v>
       </c>
       <c r="J19" s="14">
-        <v>1603890000</v>
+        <v>1602334800</v>
       </c>
       <c r="K19" s="8">
-        <v>1603889700</v>
+        <v>1602172800</v>
       </c>
       <c r="L19" s="8">
-        <v>1603976400</v>
+        <v>1602345599</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>38</v>
@@ -11882,16 +11882,16 @@
         <v>280</v>
       </c>
       <c r="I20" s="8">
-        <v>1604494500</v>
+        <v>1602592200</v>
       </c>
       <c r="J20" s="14">
-        <v>1604494800</v>
+        <v>1602594000</v>
       </c>
       <c r="K20" s="8">
-        <v>1604494500</v>
+        <v>1602345600</v>
       </c>
       <c r="L20" s="8">
-        <v>1604581200</v>
+        <v>1602604799</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>38</v>
@@ -11959,16 +11959,16 @@
         <v>280</v>
       </c>
       <c r="I21" s="8">
-        <v>1605099300</v>
+        <v>1602765000</v>
       </c>
       <c r="J21" s="14">
-        <v>1605099600</v>
+        <v>1602766800</v>
       </c>
       <c r="K21" s="8">
-        <v>1605099300</v>
+        <v>1602604800</v>
       </c>
       <c r="L21" s="8">
-        <v>1605186000</v>
+        <v>1602777599</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>38</v>
@@ -12036,16 +12036,16 @@
         <v>280</v>
       </c>
       <c r="I22" s="8">
-        <v>1605704100</v>
+        <v>1602937800</v>
       </c>
       <c r="J22" s="14">
-        <v>1605704400</v>
+        <v>1602939600</v>
       </c>
       <c r="K22" s="8">
-        <v>1605704100</v>
+        <v>1602777600</v>
       </c>
       <c r="L22" s="8">
-        <v>1605790800</v>
+        <v>1602950399</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>38</v>
@@ -12113,16 +12113,16 @@
         <v>280</v>
       </c>
       <c r="I23" s="8">
-        <v>1606308900</v>
+        <v>1603197000</v>
       </c>
       <c r="J23" s="14">
-        <v>1606309200</v>
+        <v>1603198800</v>
       </c>
       <c r="K23" s="8">
-        <v>1606308900</v>
+        <v>1602950400</v>
       </c>
       <c r="L23" s="8">
-        <v>1606395600</v>
+        <v>1603209599</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>38</v>
@@ -12190,16 +12190,16 @@
         <v>280</v>
       </c>
       <c r="I24" s="8">
-        <v>1606913700</v>
+        <v>1603369800</v>
       </c>
       <c r="J24" s="14">
-        <v>1606914000</v>
+        <v>1603371600</v>
       </c>
       <c r="K24" s="8">
-        <v>1606913700</v>
+        <v>1603209600</v>
       </c>
       <c r="L24" s="8">
-        <v>1607000400</v>
+        <v>1603382399</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>38</v>
@@ -12267,16 +12267,16 @@
         <v>280</v>
       </c>
       <c r="I25" s="8">
-        <v>1607518500</v>
+        <v>1603542600</v>
       </c>
       <c r="J25" s="14">
-        <v>1607518800</v>
+        <v>1603544400</v>
       </c>
       <c r="K25" s="8">
-        <v>1607518500</v>
+        <v>1603382400</v>
       </c>
       <c r="L25" s="8">
-        <v>1607605200</v>
+        <v>1603555199</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>38</v>
@@ -12344,16 +12344,16 @@
         <v>280</v>
       </c>
       <c r="I26" s="8">
-        <v>1608123300</v>
+        <v>1603801800</v>
       </c>
       <c r="J26" s="14">
-        <v>1608123600</v>
+        <v>1603803600</v>
       </c>
       <c r="K26" s="8">
-        <v>1608123300</v>
+        <v>1603555200</v>
       </c>
       <c r="L26" s="8">
-        <v>1608210000</v>
+        <v>1603814399</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>38</v>
@@ -12421,16 +12421,16 @@
         <v>280</v>
       </c>
       <c r="I27" s="8">
-        <v>1608728100</v>
+        <v>1603974600</v>
       </c>
       <c r="J27" s="14">
-        <v>1608728400</v>
+        <v>1603976400</v>
       </c>
       <c r="K27" s="8">
-        <v>1608728100</v>
+        <v>1603814400</v>
       </c>
       <c r="L27" s="8">
-        <v>1608814800</v>
+        <v>1603987199</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>38</v>
@@ -12498,16 +12498,16 @@
         <v>280</v>
       </c>
       <c r="I28" s="8">
-        <v>1609332900</v>
+        <v>1604147400</v>
       </c>
       <c r="J28" s="14">
-        <v>1609333200</v>
+        <v>1604149200</v>
       </c>
       <c r="K28" s="8">
-        <v>1609332900</v>
+        <v>1603987200</v>
       </c>
       <c r="L28" s="8">
-        <v>1609419600</v>
+        <v>1604159999</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>38</v>
@@ -12575,16 +12575,16 @@
         <v>280</v>
       </c>
       <c r="I29" s="8">
-        <v>1609937700</v>
+        <v>1604406600</v>
       </c>
       <c r="J29" s="14">
-        <v>1609938000</v>
+        <v>1604408400</v>
       </c>
       <c r="K29" s="8">
-        <v>1609937700</v>
+        <v>1604160000</v>
       </c>
       <c r="L29" s="8">
-        <v>1610024400</v>
+        <v>1604419199</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>38</v>
@@ -12652,16 +12652,16 @@
         <v>280</v>
       </c>
       <c r="I30" s="8">
-        <v>1610542500</v>
+        <v>1604579400</v>
       </c>
       <c r="J30" s="14">
-        <v>1610542800</v>
+        <v>1604581200</v>
       </c>
       <c r="K30" s="8">
-        <v>1610542500</v>
+        <v>1604419200</v>
       </c>
       <c r="L30" s="8">
-        <v>1610629200</v>
+        <v>1604591999</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>38</v>
@@ -12729,16 +12729,16 @@
         <v>280</v>
       </c>
       <c r="I31" s="8">
-        <v>1611147300</v>
+        <v>1604752200</v>
       </c>
       <c r="J31" s="14">
-        <v>1611147600</v>
+        <v>1604754000</v>
       </c>
       <c r="K31" s="8">
-        <v>1611147300</v>
+        <v>1604592000</v>
       </c>
       <c r="L31" s="8">
-        <v>1611234000</v>
+        <v>1604764799</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>38</v>
@@ -12806,16 +12806,16 @@
         <v>280</v>
       </c>
       <c r="I32" s="8">
-        <v>1611752100</v>
+        <v>1605011400</v>
       </c>
       <c r="J32" s="14">
-        <v>1611752400</v>
+        <v>1605013200</v>
       </c>
       <c r="K32" s="8">
-        <v>1611752100</v>
+        <v>1604764800</v>
       </c>
       <c r="L32" s="8">
-        <v>1611838800</v>
+        <v>1605023999</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>38</v>
@@ -12883,16 +12883,16 @@
         <v>280</v>
       </c>
       <c r="I33" s="8">
-        <v>1612356900</v>
+        <v>1605184200</v>
       </c>
       <c r="J33" s="14">
-        <v>1612357200</v>
+        <v>1605186000</v>
       </c>
       <c r="K33" s="8">
-        <v>1612356900</v>
+        <v>1605024000</v>
       </c>
       <c r="L33" s="8">
-        <v>1612443600</v>
+        <v>1605196799</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>38</v>
@@ -12960,16 +12960,16 @@
         <v>280</v>
       </c>
       <c r="I34" s="8">
-        <v>1612961700</v>
+        <v>1605357000</v>
       </c>
       <c r="J34" s="14">
-        <v>1612962000</v>
+        <v>1605358800</v>
       </c>
       <c r="K34" s="8">
-        <v>1612961700</v>
+        <v>1605196800</v>
       </c>
       <c r="L34" s="8">
-        <v>1613048400</v>
+        <v>1605369599</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>38</v>
@@ -13037,16 +13037,16 @@
         <v>280</v>
       </c>
       <c r="I35" s="8">
-        <v>1613566500</v>
+        <v>1605616200</v>
       </c>
       <c r="J35" s="14">
-        <v>1613566800</v>
+        <v>1605618000</v>
       </c>
       <c r="K35" s="8">
-        <v>1613566500</v>
+        <v>1605369600</v>
       </c>
       <c r="L35" s="8">
-        <v>1613653200</v>
+        <v>1605628799</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>38</v>
@@ -13114,16 +13114,16 @@
         <v>280</v>
       </c>
       <c r="I36" s="8">
-        <v>1614171300</v>
+        <v>1605789000</v>
       </c>
       <c r="J36" s="14">
-        <v>1614171600</v>
+        <v>1605790800</v>
       </c>
       <c r="K36" s="8">
-        <v>1614171300</v>
+        <v>1605628800</v>
       </c>
       <c r="L36" s="8">
-        <v>1614258000</v>
+        <v>1605801599</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>38</v>
@@ -13191,16 +13191,16 @@
         <v>280</v>
       </c>
       <c r="I37" s="8">
-        <v>1614776100</v>
+        <v>1605961800</v>
       </c>
       <c r="J37" s="14">
-        <v>1614776400</v>
+        <v>1605963600</v>
       </c>
       <c r="K37" s="8">
-        <v>1614776100</v>
+        <v>1605801600</v>
       </c>
       <c r="L37" s="8">
-        <v>1614862800</v>
+        <v>1605974399</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>38</v>
@@ -13268,16 +13268,16 @@
         <v>280</v>
       </c>
       <c r="I38" s="8">
-        <v>1615380900</v>
+        <v>1606221000</v>
       </c>
       <c r="J38" s="14">
-        <v>1615381200</v>
+        <v>1606222800</v>
       </c>
       <c r="K38" s="8">
-        <v>1615380900</v>
+        <v>1605974400</v>
       </c>
       <c r="L38" s="8">
-        <v>1615467600</v>
+        <v>1606233599</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>38</v>
@@ -13345,16 +13345,16 @@
         <v>280</v>
       </c>
       <c r="I39" s="8">
-        <v>1615985700</v>
+        <v>1606393800</v>
       </c>
       <c r="J39" s="14">
-        <v>1615986000</v>
+        <v>1606395600</v>
       </c>
       <c r="K39" s="8">
-        <v>1615985700</v>
+        <v>1606233600</v>
       </c>
       <c r="L39" s="8">
-        <v>1616072400</v>
+        <v>1606406399</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>38</v>
@@ -13422,16 +13422,16 @@
         <v>280</v>
       </c>
       <c r="I40" s="8">
-        <v>1616590500</v>
+        <v>1606566600</v>
       </c>
       <c r="J40" s="14">
-        <v>1616590800</v>
+        <v>1606568400</v>
       </c>
       <c r="K40" s="8">
-        <v>1616590500</v>
+        <v>1606406400</v>
       </c>
       <c r="L40" s="8">
-        <v>1616677200</v>
+        <v>1606579199</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>38</v>
@@ -13499,16 +13499,16 @@
         <v>280</v>
       </c>
       <c r="I41" s="8">
-        <v>1617195300</v>
+        <v>1606825800</v>
       </c>
       <c r="J41" s="14">
-        <v>1617195600</v>
+        <v>1606827600</v>
       </c>
       <c r="K41" s="8">
-        <v>1617195300</v>
+        <v>1606579200</v>
       </c>
       <c r="L41" s="8">
-        <v>1617282000</v>
+        <v>1606838399</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>38</v>
@@ -13576,16 +13576,16 @@
         <v>280</v>
       </c>
       <c r="I42" s="8">
-        <v>1617800100</v>
+        <v>1606998600</v>
       </c>
       <c r="J42" s="14">
-        <v>1617800400</v>
+        <v>1607000400</v>
       </c>
       <c r="K42" s="8">
-        <v>1617800100</v>
+        <v>1606838400</v>
       </c>
       <c r="L42" s="8">
-        <v>1617886800</v>
+        <v>1607011199</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>38</v>
@@ -13653,16 +13653,16 @@
         <v>280</v>
       </c>
       <c r="I43" s="8">
-        <v>1618404900</v>
+        <v>1607171400</v>
       </c>
       <c r="J43" s="14">
-        <v>1618405200</v>
+        <v>1607173200</v>
       </c>
       <c r="K43" s="8">
-        <v>1618404900</v>
+        <v>1607011200</v>
       </c>
       <c r="L43" s="8">
-        <v>1618491600</v>
+        <v>1607183999</v>
       </c>
       <c r="M43" s="16" t="s">
         <v>38</v>
@@ -13730,16 +13730,16 @@
         <v>280</v>
       </c>
       <c r="I44" s="8">
-        <v>1619009700</v>
+        <v>1607430600</v>
       </c>
       <c r="J44" s="14">
-        <v>1619010000</v>
+        <v>1607432400</v>
       </c>
       <c r="K44" s="8">
-        <v>1619009700</v>
+        <v>1607184000</v>
       </c>
       <c r="L44" s="8">
-        <v>1619096400</v>
+        <v>1607443199</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>38</v>
@@ -13807,16 +13807,16 @@
         <v>280</v>
       </c>
       <c r="I45" s="8">
-        <v>1619614500</v>
+        <v>1607603400</v>
       </c>
       <c r="J45" s="14">
-        <v>1619614800</v>
+        <v>1607605200</v>
       </c>
       <c r="K45" s="8">
-        <v>1619614500</v>
+        <v>1607443200</v>
       </c>
       <c r="L45" s="8">
-        <v>1619701200</v>
+        <v>1607615999</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>38</v>
@@ -13884,16 +13884,16 @@
         <v>280</v>
       </c>
       <c r="I46" s="8">
-        <v>1620219300</v>
+        <v>1607776200</v>
       </c>
       <c r="J46" s="14">
-        <v>1620219600</v>
+        <v>1607778000</v>
       </c>
       <c r="K46" s="8">
-        <v>1620219300</v>
+        <v>1607616000</v>
       </c>
       <c r="L46" s="8">
-        <v>1620306000</v>
+        <v>1607788799</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>38</v>
@@ -13961,16 +13961,16 @@
         <v>280</v>
       </c>
       <c r="I47" s="8">
-        <v>1620824100</v>
+        <v>1608035400</v>
       </c>
       <c r="J47" s="14">
-        <v>1620824400</v>
+        <v>1608037200</v>
       </c>
       <c r="K47" s="8">
-        <v>1620824100</v>
+        <v>1607788800</v>
       </c>
       <c r="L47" s="8">
-        <v>1620910800</v>
+        <v>1608047999</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>38</v>
@@ -14038,16 +14038,16 @@
         <v>280</v>
       </c>
       <c r="I48" s="8">
-        <v>1621428900</v>
+        <v>1608208200</v>
       </c>
       <c r="J48" s="14">
-        <v>1621429200</v>
+        <v>1608210000</v>
       </c>
       <c r="K48" s="8">
-        <v>1621428900</v>
+        <v>1608048000</v>
       </c>
       <c r="L48" s="8">
-        <v>1621515600</v>
+        <v>1608220799</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>38</v>
@@ -14115,16 +14115,16 @@
         <v>280</v>
       </c>
       <c r="I49" s="8">
-        <v>1622033700</v>
+        <v>1608381000</v>
       </c>
       <c r="J49" s="14">
-        <v>1622034000</v>
+        <v>1608382800</v>
       </c>
       <c r="K49" s="8">
-        <v>1622033700</v>
+        <v>1608220800</v>
       </c>
       <c r="L49" s="8">
-        <v>1622120400</v>
+        <v>1608393599</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>38</v>
@@ -14192,16 +14192,16 @@
         <v>280</v>
       </c>
       <c r="I50" s="8">
-        <v>1622638500</v>
+        <v>1608640200</v>
       </c>
       <c r="J50" s="14">
-        <v>1622638800</v>
+        <v>1608642000</v>
       </c>
       <c r="K50" s="8">
-        <v>1622638500</v>
+        <v>1608393600</v>
       </c>
       <c r="L50" s="8">
-        <v>1622725200</v>
+        <v>1608652799</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>38</v>
@@ -14269,16 +14269,16 @@
         <v>280</v>
       </c>
       <c r="I51" s="8">
-        <v>1623243300</v>
+        <v>1608813000</v>
       </c>
       <c r="J51" s="31">
-        <v>1623243600</v>
+        <v>1608814800</v>
       </c>
       <c r="K51" s="8">
-        <v>1623243300</v>
+        <v>1608652800</v>
       </c>
       <c r="L51" s="30">
-        <v>1623330000</v>
+        <v>1608825599</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>38</v>
@@ -14346,16 +14346,16 @@
         <v>280</v>
       </c>
       <c r="I52" s="8">
-        <v>1623848100</v>
+        <v>1608985800</v>
       </c>
       <c r="J52" s="14">
-        <v>1623848400</v>
+        <v>1608987600</v>
       </c>
       <c r="K52" s="8">
-        <v>1623848100</v>
+        <v>1608825600</v>
       </c>
       <c r="L52" s="8">
-        <v>1623934800</v>
+        <v>1608998399</v>
       </c>
       <c r="M52" s="16" t="s">
         <v>38</v>
@@ -14423,16 +14423,16 @@
         <v>280</v>
       </c>
       <c r="I53" s="8">
-        <v>1624452900</v>
+        <v>1609245000</v>
       </c>
       <c r="J53" s="14">
-        <v>1624453200</v>
+        <v>1609246800</v>
       </c>
       <c r="K53" s="8">
-        <v>1624452900</v>
+        <v>1608998400</v>
       </c>
       <c r="L53" s="8">
-        <v>1624539600</v>
+        <v>1609257599</v>
       </c>
       <c r="M53" s="16" t="s">
         <v>38</v>
@@ -14500,16 +14500,16 @@
         <v>280</v>
       </c>
       <c r="I54" s="8">
-        <v>1625057700</v>
+        <v>1609417800</v>
       </c>
       <c r="J54" s="14">
-        <v>1625058000</v>
+        <v>1609419600</v>
       </c>
       <c r="K54" s="8">
-        <v>1625057700</v>
+        <v>1609257600</v>
       </c>
       <c r="L54" s="8">
-        <v>1625144400</v>
+        <v>1609430399</v>
       </c>
       <c r="M54" s="16" t="s">
         <v>38</v>
@@ -14577,16 +14577,16 @@
         <v>280</v>
       </c>
       <c r="I55" s="8">
-        <v>1625662500</v>
+        <v>1609590600</v>
       </c>
       <c r="J55" s="14">
-        <v>1625662800</v>
+        <v>1609592400</v>
       </c>
       <c r="K55" s="8">
-        <v>1625662500</v>
+        <v>1609430400</v>
       </c>
       <c r="L55" s="8">
-        <v>1625749200</v>
+        <v>1609603199</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>38</v>
@@ -14654,16 +14654,16 @@
         <v>280</v>
       </c>
       <c r="I56" s="8">
-        <v>1626267300</v>
+        <v>1609849800</v>
       </c>
       <c r="J56" s="14">
-        <v>1626267600</v>
+        <v>1609851600</v>
       </c>
       <c r="K56" s="8">
-        <v>1626267300</v>
+        <v>1609603200</v>
       </c>
       <c r="L56" s="8">
-        <v>1626354000</v>
+        <v>1609862399</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>38</v>
@@ -14731,16 +14731,16 @@
         <v>280</v>
       </c>
       <c r="I57" s="8">
-        <v>1626872100</v>
+        <v>1610022600</v>
       </c>
       <c r="J57" s="14">
-        <v>1626872400</v>
+        <v>1610024400</v>
       </c>
       <c r="K57" s="8">
-        <v>1626872100</v>
+        <v>1609862400</v>
       </c>
       <c r="L57" s="8">
-        <v>1626958800</v>
+        <v>1610035199</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>38</v>
@@ -14808,16 +14808,16 @@
         <v>280</v>
       </c>
       <c r="I58" s="8">
-        <v>1627476900</v>
+        <v>1610195400</v>
       </c>
       <c r="J58" s="14">
-        <v>1627477200</v>
+        <v>1610197200</v>
       </c>
       <c r="K58" s="8">
-        <v>1627476900</v>
+        <v>1610035200</v>
       </c>
       <c r="L58" s="8">
-        <v>1627563600</v>
+        <v>1610207999</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>38</v>
@@ -14885,16 +14885,16 @@
         <v>280</v>
       </c>
       <c r="I59" s="8">
-        <v>1628081700</v>
+        <v>1610454600</v>
       </c>
       <c r="J59" s="14">
-        <v>1628082000</v>
+        <v>1610456400</v>
       </c>
       <c r="K59" s="8">
-        <v>1628081700</v>
+        <v>1610208000</v>
       </c>
       <c r="L59" s="8">
-        <v>1628168400</v>
+        <v>1610467199</v>
       </c>
       <c r="M59" s="16" t="s">
         <v>38</v>
@@ -14962,16 +14962,16 @@
         <v>280</v>
       </c>
       <c r="I60" s="8">
-        <v>1628686500</v>
+        <v>1610627400</v>
       </c>
       <c r="J60" s="14">
-        <v>1628686800</v>
+        <v>1610629200</v>
       </c>
       <c r="K60" s="8">
-        <v>1628686500</v>
+        <v>1610467200</v>
       </c>
       <c r="L60" s="8">
-        <v>1628773200</v>
+        <v>1610639999</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>38</v>
@@ -15039,16 +15039,16 @@
         <v>280</v>
       </c>
       <c r="I61" s="8">
-        <v>1629291300</v>
+        <v>1610800200</v>
       </c>
       <c r="J61" s="14">
-        <v>1629291600</v>
+        <v>1610802000</v>
       </c>
       <c r="K61" s="8">
-        <v>1629291300</v>
+        <v>1610640000</v>
       </c>
       <c r="L61" s="8">
-        <v>1629378000</v>
+        <v>1610812799</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>38</v>
@@ -15116,16 +15116,16 @@
         <v>280</v>
       </c>
       <c r="I62" s="8">
-        <v>1629896100</v>
+        <v>1611059400</v>
       </c>
       <c r="J62" s="14">
-        <v>1629896400</v>
+        <v>1611061200</v>
       </c>
       <c r="K62" s="8">
-        <v>1629896100</v>
+        <v>1610812800</v>
       </c>
       <c r="L62" s="8">
-        <v>1629982800</v>
+        <v>1611071999</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>38</v>
@@ -15193,16 +15193,16 @@
         <v>280</v>
       </c>
       <c r="I63" s="8">
-        <v>1630500900</v>
+        <v>1611232200</v>
       </c>
       <c r="J63" s="14">
-        <v>1630501200</v>
+        <v>1611234000</v>
       </c>
       <c r="K63" s="8">
-        <v>1630500900</v>
+        <v>1611072000</v>
       </c>
       <c r="L63" s="8">
-        <v>1630587600</v>
+        <v>1611244799</v>
       </c>
       <c r="M63" s="16" t="s">
         <v>38</v>
@@ -15270,16 +15270,16 @@
         <v>280</v>
       </c>
       <c r="I64" s="8">
-        <v>1631105700</v>
+        <v>1611405000</v>
       </c>
       <c r="J64" s="14">
-        <v>1631106000</v>
+        <v>1611406800</v>
       </c>
       <c r="K64" s="8">
-        <v>1631105700</v>
+        <v>1611244800</v>
       </c>
       <c r="L64" s="8">
-        <v>1631192400</v>
+        <v>1611417599</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>38</v>
@@ -15347,16 +15347,16 @@
         <v>280</v>
       </c>
       <c r="I65" s="8">
-        <v>1631710500</v>
+        <v>1611664200</v>
       </c>
       <c r="J65" s="14">
-        <v>1631710800</v>
+        <v>1611666000</v>
       </c>
       <c r="K65" s="8">
-        <v>1631710500</v>
+        <v>1611417600</v>
       </c>
       <c r="L65" s="8">
-        <v>1631797200</v>
+        <v>1611676799</v>
       </c>
       <c r="M65" s="16" t="s">
         <v>38</v>
@@ -15424,16 +15424,16 @@
         <v>280</v>
       </c>
       <c r="I66" s="8">
-        <v>1632315300</v>
+        <v>1611837000</v>
       </c>
       <c r="J66" s="14">
-        <v>1632315600</v>
+        <v>1611838800</v>
       </c>
       <c r="K66" s="8">
-        <v>1632315300</v>
+        <v>1611676800</v>
       </c>
       <c r="L66" s="8">
-        <v>1632402000</v>
+        <v>1611849599</v>
       </c>
       <c r="M66" s="16" t="s">
         <v>38</v>
@@ -15501,16 +15501,16 @@
         <v>280</v>
       </c>
       <c r="I67" s="8">
-        <v>1632920100</v>
+        <v>1612009800</v>
       </c>
       <c r="J67" s="14">
-        <v>1632920400</v>
+        <v>1612011600</v>
       </c>
       <c r="K67" s="8">
-        <v>1632920100</v>
+        <v>1611849600</v>
       </c>
       <c r="L67" s="8">
-        <v>1633006800</v>
+        <v>1612022399</v>
       </c>
       <c r="M67" s="16" t="s">
         <v>38</v>
@@ -15578,16 +15578,16 @@
         <v>280</v>
       </c>
       <c r="I68" s="8">
-        <v>1633524900</v>
+        <v>1612269000</v>
       </c>
       <c r="J68" s="14">
-        <v>1633525200</v>
+        <v>1612270800</v>
       </c>
       <c r="K68" s="8">
-        <v>1633524900</v>
+        <v>1612022400</v>
       </c>
       <c r="L68" s="8">
-        <v>1633611600</v>
+        <v>1612281599</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>38</v>
@@ -15655,16 +15655,16 @@
         <v>280</v>
       </c>
       <c r="I69" s="8">
-        <v>1634129700</v>
+        <v>1612441800</v>
       </c>
       <c r="J69" s="14">
-        <v>1634130000</v>
+        <v>1612443600</v>
       </c>
       <c r="K69" s="8">
-        <v>1634129700</v>
+        <v>1612281600</v>
       </c>
       <c r="L69" s="8">
-        <v>1634216400</v>
+        <v>1612454399</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>38</v>
@@ -15732,16 +15732,16 @@
         <v>280</v>
       </c>
       <c r="I70" s="8">
-        <v>1634734500</v>
+        <v>1612614600</v>
       </c>
       <c r="J70" s="14">
-        <v>1634734800</v>
+        <v>1612616400</v>
       </c>
       <c r="K70" s="8">
-        <v>1634734500</v>
+        <v>1612454400</v>
       </c>
       <c r="L70" s="8">
-        <v>1634821200</v>
+        <v>1612627199</v>
       </c>
       <c r="M70" s="16" t="s">
         <v>38</v>
@@ -15809,16 +15809,16 @@
         <v>280</v>
       </c>
       <c r="I71" s="8">
-        <v>1635339300</v>
+        <v>1612873800</v>
       </c>
       <c r="J71" s="14">
-        <v>1635339600</v>
+        <v>1612875600</v>
       </c>
       <c r="K71" s="8">
-        <v>1635339300</v>
+        <v>1612627200</v>
       </c>
       <c r="L71" s="8">
-        <v>1635426000</v>
+        <v>1612886399</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>38</v>
@@ -15886,16 +15886,16 @@
         <v>280</v>
       </c>
       <c r="I72" s="8">
-        <v>1635944100</v>
+        <v>1613046600</v>
       </c>
       <c r="J72" s="14">
-        <v>1635944400</v>
+        <v>1613048400</v>
       </c>
       <c r="K72" s="8">
-        <v>1635944100</v>
+        <v>1612886400</v>
       </c>
       <c r="L72" s="8">
-        <v>1636030800</v>
+        <v>1613059199</v>
       </c>
       <c r="M72" s="16" t="s">
         <v>38</v>
@@ -15963,16 +15963,16 @@
         <v>280</v>
       </c>
       <c r="I73" s="8">
-        <v>1636548900</v>
+        <v>1613219400</v>
       </c>
       <c r="J73" s="14">
-        <v>1636549200</v>
+        <v>1613221200</v>
       </c>
       <c r="K73" s="8">
-        <v>1636548900</v>
+        <v>1613059200</v>
       </c>
       <c r="L73" s="8">
-        <v>1636635600</v>
+        <v>1613231999</v>
       </c>
       <c r="M73" s="16" t="s">
         <v>38</v>
@@ -16040,16 +16040,16 @@
         <v>280</v>
       </c>
       <c r="I74" s="8">
-        <v>1637153700</v>
+        <v>1613478600</v>
       </c>
       <c r="J74" s="14">
-        <v>1637154000</v>
+        <v>1613480400</v>
       </c>
       <c r="K74" s="8">
-        <v>1637153700</v>
+        <v>1613232000</v>
       </c>
       <c r="L74" s="8">
-        <v>1637240400</v>
+        <v>1613491199</v>
       </c>
       <c r="M74" s="16" t="s">
         <v>38</v>
@@ -16117,16 +16117,16 @@
         <v>280</v>
       </c>
       <c r="I75" s="8">
-        <v>1637758500</v>
+        <v>1613651400</v>
       </c>
       <c r="J75" s="14">
-        <v>1637758800</v>
+        <v>1613653200</v>
       </c>
       <c r="K75" s="8">
-        <v>1637758500</v>
+        <v>1613491200</v>
       </c>
       <c r="L75" s="8">
-        <v>1637845200</v>
+        <v>1613663999</v>
       </c>
       <c r="M75" s="16" t="s">
         <v>38</v>
@@ -16194,16 +16194,16 @@
         <v>280</v>
       </c>
       <c r="I76" s="8">
-        <v>1638363300</v>
+        <v>1613824200</v>
       </c>
       <c r="J76" s="14">
-        <v>1638363600</v>
+        <v>1613826000</v>
       </c>
       <c r="K76" s="8">
-        <v>1638363300</v>
+        <v>1613664000</v>
       </c>
       <c r="L76" s="8">
-        <v>1638450000</v>
+        <v>1613836799</v>
       </c>
       <c r="M76" s="16" t="s">
         <v>38</v>
@@ -16271,16 +16271,16 @@
         <v>280</v>
       </c>
       <c r="I77" s="8">
-        <v>1638968100</v>
+        <v>1614083400</v>
       </c>
       <c r="J77" s="14">
-        <v>1638968400</v>
+        <v>1614085200</v>
       </c>
       <c r="K77" s="8">
-        <v>1638968100</v>
+        <v>1613836800</v>
       </c>
       <c r="L77" s="8">
-        <v>1639054800</v>
+        <v>1614095999</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>38</v>
@@ -16348,16 +16348,16 @@
         <v>280</v>
       </c>
       <c r="I78" s="8">
-        <v>1639572900</v>
+        <v>1614256200</v>
       </c>
       <c r="J78" s="14">
-        <v>1639573200</v>
+        <v>1614258000</v>
       </c>
       <c r="K78" s="8">
-        <v>1639572900</v>
+        <v>1614096000</v>
       </c>
       <c r="L78" s="8">
-        <v>1639659600</v>
+        <v>1614268799</v>
       </c>
       <c r="M78" s="16" t="s">
         <v>38</v>
@@ -16425,16 +16425,16 @@
         <v>280</v>
       </c>
       <c r="I79" s="14">
-        <v>1640177700</v>
+        <v>1614429000</v>
       </c>
       <c r="J79" s="14">
-        <v>1640178000</v>
+        <v>1614430800</v>
       </c>
       <c r="K79" s="14">
-        <v>1640177700</v>
+        <v>1614268800</v>
       </c>
       <c r="L79" s="8">
-        <v>1640264400</v>
+        <v>1614441599</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>38</v>
@@ -16502,16 +16502,16 @@
         <v>280</v>
       </c>
       <c r="I80" s="14">
-        <v>1640782500</v>
+        <v>1614688200</v>
       </c>
       <c r="J80" s="14">
-        <v>1640782800</v>
+        <v>1614690000</v>
       </c>
       <c r="K80" s="14">
-        <v>1640782500</v>
+        <v>1614441600</v>
       </c>
       <c r="L80" s="8">
-        <v>1640869200</v>
+        <v>1614700799</v>
       </c>
       <c r="M80" s="16" t="s">
         <v>38</v>
@@ -16579,16 +16579,16 @@
         <v>280</v>
       </c>
       <c r="I81" s="14">
-        <v>1641387300</v>
+        <v>1614861000</v>
       </c>
       <c r="J81" s="14">
-        <v>1641387600</v>
+        <v>1614862800</v>
       </c>
       <c r="K81" s="14">
-        <v>1641387300</v>
+        <v>1614700800</v>
       </c>
       <c r="L81" s="8">
-        <v>1641474000</v>
+        <v>1614873599</v>
       </c>
       <c r="M81" s="16" t="s">
         <v>38</v>
@@ -16656,16 +16656,16 @@
         <v>280</v>
       </c>
       <c r="I82" s="14">
-        <v>1641992100</v>
+        <v>1615033800</v>
       </c>
       <c r="J82" s="14">
-        <v>1641992400</v>
+        <v>1615035600</v>
       </c>
       <c r="K82" s="14">
-        <v>1641992100</v>
+        <v>1614873600</v>
       </c>
       <c r="L82" s="8">
-        <v>1642078800</v>
+        <v>1615046399</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>38</v>
@@ -16733,16 +16733,16 @@
         <v>280</v>
       </c>
       <c r="I83" s="36">
-        <v>1642596900</v>
+        <v>1615293000</v>
       </c>
       <c r="J83" s="14">
-        <v>1642597200</v>
+        <v>1615294800</v>
       </c>
       <c r="K83" s="36">
-        <v>1642596900</v>
+        <v>1615046400</v>
       </c>
       <c r="L83" s="8">
-        <v>1642683600</v>
+        <v>1615305599</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>38</v>
@@ -16810,16 +16810,16 @@
         <v>280</v>
       </c>
       <c r="I84" s="36">
-        <v>1643201700</v>
+        <v>1615465800</v>
       </c>
       <c r="J84" s="14">
-        <v>1643202000</v>
+        <v>1615467600</v>
       </c>
       <c r="K84" s="36">
-        <v>1643201700</v>
+        <v>1615305600</v>
       </c>
       <c r="L84" s="8">
-        <v>1643288400</v>
+        <v>1615478399</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>38</v>
@@ -16887,16 +16887,16 @@
         <v>280</v>
       </c>
       <c r="I85" s="36">
-        <v>1643806500</v>
+        <v>1615638600</v>
       </c>
       <c r="J85" s="14">
-        <v>1643806800</v>
+        <v>1615640400</v>
       </c>
       <c r="K85" s="36">
-        <v>1643806500</v>
+        <v>1615478400</v>
       </c>
       <c r="L85" s="8">
-        <v>1643893200</v>
+        <v>1615651199</v>
       </c>
       <c r="M85" s="16" t="s">
         <v>38</v>
@@ -16964,16 +16964,16 @@
         <v>280</v>
       </c>
       <c r="I86" s="36">
-        <v>1644411300</v>
+        <v>1615897800</v>
       </c>
       <c r="J86" s="14">
-        <v>1644411600</v>
+        <v>1615899600</v>
       </c>
       <c r="K86" s="36">
-        <v>1644411300</v>
+        <v>1615651200</v>
       </c>
       <c r="L86" s="8">
-        <v>1644498000</v>
+        <v>1615910399</v>
       </c>
       <c r="M86" s="16" t="s">
         <v>38</v>
@@ -17041,16 +17041,16 @@
         <v>280</v>
       </c>
       <c r="I87" s="36">
-        <v>1645016100</v>
+        <v>1616070600</v>
       </c>
       <c r="J87" s="14">
-        <v>1645016400</v>
+        <v>1616072400</v>
       </c>
       <c r="K87" s="36">
-        <v>1645016100</v>
+        <v>1615910400</v>
       </c>
       <c r="L87" s="8">
-        <v>1645102800</v>
+        <v>1616083199</v>
       </c>
       <c r="M87" s="16" t="s">
         <v>38</v>
@@ -17118,16 +17118,16 @@
         <v>280</v>
       </c>
       <c r="I88" s="36">
-        <v>1645620900</v>
+        <v>1616243400</v>
       </c>
       <c r="J88" s="14">
-        <v>1645621200</v>
+        <v>1616245200</v>
       </c>
       <c r="K88" s="36">
-        <v>1645620900</v>
+        <v>1616083200</v>
       </c>
       <c r="L88" s="8">
-        <v>1645707600</v>
+        <v>1616255999</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>38</v>
@@ -17195,16 +17195,16 @@
         <v>280</v>
       </c>
       <c r="I89" s="8">
-        <v>1646225700</v>
+        <v>1616502600</v>
       </c>
       <c r="J89" s="14">
-        <v>1646226000</v>
+        <v>1616504400</v>
       </c>
       <c r="K89" s="8">
-        <v>1646225700</v>
+        <v>1616256000</v>
       </c>
       <c r="L89" s="8">
-        <v>1646312400</v>
+        <v>1616515199</v>
       </c>
       <c r="M89" s="16" t="s">
         <v>38</v>
@@ -17272,16 +17272,16 @@
         <v>280</v>
       </c>
       <c r="I90" s="8">
-        <v>1646830500</v>
+        <v>1616675400</v>
       </c>
       <c r="J90" s="14">
-        <v>1646830800</v>
+        <v>1616677200</v>
       </c>
       <c r="K90" s="8">
-        <v>1646830500</v>
+        <v>1616515200</v>
       </c>
       <c r="L90" s="8">
-        <v>1646917200</v>
+        <v>1616687999</v>
       </c>
       <c r="M90" s="16" t="s">
         <v>38</v>
@@ -17349,16 +17349,16 @@
         <v>280</v>
       </c>
       <c r="I91" s="8">
-        <v>1647435300</v>
+        <v>1616848200</v>
       </c>
       <c r="J91" s="14">
-        <v>1647435600</v>
+        <v>1616850000</v>
       </c>
       <c r="K91" s="8">
-        <v>1647435300</v>
+        <v>1616688000</v>
       </c>
       <c r="L91" s="8">
-        <v>1647522000</v>
+        <v>1616860799</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>38</v>
@@ -17426,16 +17426,16 @@
         <v>280</v>
       </c>
       <c r="I92" s="8">
-        <v>1648040100</v>
+        <v>1617107400</v>
       </c>
       <c r="J92" s="14">
-        <v>1648040400</v>
+        <v>1617109200</v>
       </c>
       <c r="K92" s="8">
-        <v>1648040100</v>
+        <v>1616860800</v>
       </c>
       <c r="L92" s="8">
-        <v>1648126800</v>
+        <v>1617119999</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>38</v>
@@ -17503,16 +17503,16 @@
         <v>280</v>
       </c>
       <c r="I93" s="8">
-        <v>1648644900</v>
+        <v>1617280200</v>
       </c>
       <c r="J93" s="14">
-        <v>1648645200</v>
+        <v>1617282000</v>
       </c>
       <c r="K93" s="8">
-        <v>1648644900</v>
+        <v>1617120000</v>
       </c>
       <c r="L93" s="8">
-        <v>1648731600</v>
+        <v>1617292799</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>38</v>
@@ -17580,16 +17580,16 @@
         <v>280</v>
       </c>
       <c r="I94" s="8">
-        <v>1649249700</v>
+        <v>1617453000</v>
       </c>
       <c r="J94" s="14">
-        <v>1649250000</v>
+        <v>1617454800</v>
       </c>
       <c r="K94" s="8">
-        <v>1649249700</v>
+        <v>1617292800</v>
       </c>
       <c r="L94" s="8">
-        <v>1649336400</v>
+        <v>1617465599</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>38</v>
@@ -17657,16 +17657,16 @@
         <v>280</v>
       </c>
       <c r="I95" s="8">
-        <v>1649854500</v>
+        <v>1617712200</v>
       </c>
       <c r="J95" s="14">
-        <v>1649854800</v>
+        <v>1617714000</v>
       </c>
       <c r="K95" s="8">
-        <v>1649854500</v>
+        <v>1617465600</v>
       </c>
       <c r="L95" s="8">
-        <v>1649941200</v>
+        <v>1617724799</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>38</v>
@@ -17734,16 +17734,16 @@
         <v>280</v>
       </c>
       <c r="I96" s="8">
-        <v>1650459300</v>
+        <v>1617885000</v>
       </c>
       <c r="J96" s="14">
-        <v>1650459600</v>
+        <v>1617886800</v>
       </c>
       <c r="K96" s="8">
-        <v>1650459300</v>
+        <v>1617724800</v>
       </c>
       <c r="L96" s="8">
-        <v>1650546000</v>
+        <v>1617897599</v>
       </c>
       <c r="M96" s="16" t="s">
         <v>38</v>
@@ -17811,16 +17811,16 @@
         <v>280</v>
       </c>
       <c r="I97" s="8">
-        <v>1651064100</v>
+        <v>1618057800</v>
       </c>
       <c r="J97" s="14">
-        <v>1651064400</v>
+        <v>1618059600</v>
       </c>
       <c r="K97" s="8">
-        <v>1651064100</v>
+        <v>1617897600</v>
       </c>
       <c r="L97" s="8">
-        <v>1651150800</v>
+        <v>1618070399</v>
       </c>
       <c r="M97" s="16" t="s">
         <v>38</v>
@@ -17888,16 +17888,16 @@
         <v>280</v>
       </c>
       <c r="I98" s="8">
-        <v>1651668900</v>
+        <v>1618317000</v>
       </c>
       <c r="J98" s="14">
-        <v>1651669200</v>
+        <v>1618318800</v>
       </c>
       <c r="K98" s="8">
-        <v>1651668900</v>
+        <v>1618070400</v>
       </c>
       <c r="L98" s="8">
-        <v>1651755600</v>
+        <v>1618329599</v>
       </c>
       <c r="M98" s="16" t="s">
         <v>38</v>
@@ -17965,16 +17965,16 @@
         <v>280</v>
       </c>
       <c r="I99" s="8">
-        <v>1652273700</v>
+        <v>1618489800</v>
       </c>
       <c r="J99" s="14">
-        <v>1652274000</v>
+        <v>1618491600</v>
       </c>
       <c r="K99" s="8">
-        <v>1652273700</v>
+        <v>1618329600</v>
       </c>
       <c r="L99" s="8">
-        <v>1652360400</v>
+        <v>1618502399</v>
       </c>
       <c r="M99" s="16" t="s">
         <v>38</v>
@@ -18042,16 +18042,16 @@
         <v>280</v>
       </c>
       <c r="I100" s="8">
-        <v>1652878500</v>
+        <v>1618662600</v>
       </c>
       <c r="J100" s="14">
-        <v>1652878800</v>
+        <v>1618664400</v>
       </c>
       <c r="K100" s="8">
-        <v>1652878500</v>
+        <v>1618502400</v>
       </c>
       <c r="L100" s="8">
-        <v>1652965200</v>
+        <v>1618675199</v>
       </c>
       <c r="M100" s="16" t="s">
         <v>38</v>
@@ -18119,16 +18119,16 @@
         <v>280</v>
       </c>
       <c r="I101" s="8">
-        <v>1653483300</v>
+        <v>1618921800</v>
       </c>
       <c r="J101" s="14">
-        <v>1653483600</v>
+        <v>1618923600</v>
       </c>
       <c r="K101" s="8">
-        <v>1653483300</v>
+        <v>1618675200</v>
       </c>
       <c r="L101" s="8">
-        <v>1653570000</v>
+        <v>1618934399</v>
       </c>
       <c r="M101" s="16" t="s">
         <v>38</v>

--- a/config_Release/fishmatch_ui.xlsx
+++ b/config_Release/fishmatch_ui.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="306">
   <si>
     <t>id|行号</t>
   </si>
@@ -1909,12 +1909,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD103"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2094,91 +2094,36 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="6">
-        <v>10001</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1599222600</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1599224400</v>
-      </c>
-      <c r="K3" s="14">
-        <v>1599062400</v>
-      </c>
-      <c r="L3">
-        <v>1599235199</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>100</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="5"/>
+      <c r="T3" s="10"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>42</v>
@@ -2196,16 +2141,16 @@
         <v>280</v>
       </c>
       <c r="I4" s="14">
-        <v>1599481800</v>
+        <v>1599049800</v>
       </c>
       <c r="J4" s="14">
-        <v>1599483600</v>
+        <v>1599051600</v>
       </c>
       <c r="K4" s="14">
-        <v>1599235200</v>
-      </c>
-      <c r="L4">
-        <v>1599494399</v>
+        <v>1598889600</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1599062399</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>38</v>
@@ -2238,7 +2183,7 @@
         <v>46</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>39</v>
@@ -2248,91 +2193,36 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10003</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1599654600</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1599656400</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1599494400</v>
-      </c>
-      <c r="L5">
-        <v>1599667199</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>100</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="10">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="5"/>
+      <c r="T5" s="10"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>42</v>
@@ -2349,17 +2239,17 @@
       <c r="H6" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I6" s="36">
-        <v>1599827400</v>
+      <c r="I6" s="14">
+        <v>1599222600</v>
       </c>
       <c r="J6" s="14">
-        <v>1599829200</v>
-      </c>
-      <c r="K6" s="36">
-        <v>1599667200</v>
+        <v>1599224400</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1599062400</v>
       </c>
       <c r="L6">
-        <v>1599839999</v>
+        <v>1599235199</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>38</v>
@@ -2403,13 +2293,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>42</v>
@@ -2426,17 +2316,17 @@
       <c r="H7" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I7" s="36">
-        <v>1600086600</v>
+      <c r="I7" s="14">
+        <v>1599481800</v>
       </c>
       <c r="J7" s="14">
-        <v>1600088400</v>
-      </c>
-      <c r="K7" s="36">
-        <v>1599840000</v>
+        <v>1599483600</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1599235200</v>
       </c>
       <c r="L7">
-        <v>1600099199</v>
+        <v>1599494399</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>38</v>
@@ -2480,13 +2370,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>42</v>
@@ -2503,17 +2393,17 @@
       <c r="H8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I8" s="36">
-        <v>1600259400</v>
+      <c r="I8" s="14">
+        <v>1599654600</v>
       </c>
       <c r="J8" s="14">
-        <v>1600261200</v>
-      </c>
-      <c r="K8" s="36">
-        <v>1600099200</v>
+        <v>1599656400</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1599494400</v>
       </c>
       <c r="L8">
-        <v>1600271999</v>
+        <v>1599667199</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>38</v>
@@ -2557,13 +2447,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>42</v>
@@ -2581,16 +2471,16 @@
         <v>280</v>
       </c>
       <c r="I9" s="36">
-        <v>1600432200</v>
+        <v>1599827400</v>
       </c>
       <c r="J9" s="14">
-        <v>1600434000</v>
+        <v>1599829200</v>
       </c>
       <c r="K9" s="36">
-        <v>1600272000</v>
+        <v>1599667200</v>
       </c>
       <c r="L9">
-        <v>1600444799</v>
+        <v>1599839999</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>38</v>
@@ -2634,13 +2524,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>42</v>
@@ -2658,16 +2548,16 @@
         <v>280</v>
       </c>
       <c r="I10" s="36">
-        <v>1600691400</v>
+        <v>1600086600</v>
       </c>
       <c r="J10" s="14">
-        <v>1600693200</v>
+        <v>1600088400</v>
       </c>
       <c r="K10" s="36">
-        <v>1600444800</v>
+        <v>1599840000</v>
       </c>
       <c r="L10">
-        <v>1600703999</v>
+        <v>1600099199</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>38</v>
@@ -2711,13 +2601,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6">
-        <v>10009</v>
+        <v>10006</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>42</v>
@@ -2735,16 +2625,16 @@
         <v>280</v>
       </c>
       <c r="I11" s="36">
-        <v>1600864200</v>
+        <v>1600259400</v>
       </c>
       <c r="J11" s="14">
-        <v>1600866000</v>
+        <v>1600261200</v>
       </c>
       <c r="K11" s="36">
-        <v>1600704000</v>
+        <v>1600099200</v>
       </c>
       <c r="L11">
-        <v>1600876799</v>
+        <v>1600271999</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>38</v>
@@ -2788,13 +2678,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6">
-        <v>10010</v>
+        <v>10007</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>42</v>
@@ -2811,17 +2701,17 @@
       <c r="H12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="8">
-        <v>1601037000</v>
+      <c r="I12" s="36">
+        <v>1600432200</v>
       </c>
       <c r="J12" s="14">
-        <v>1601038800</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1600876800</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1601049599</v>
+        <v>1600434000</v>
+      </c>
+      <c r="K12" s="36">
+        <v>1600272000</v>
+      </c>
+      <c r="L12">
+        <v>1600444799</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>38</v>
@@ -2865,13 +2755,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="6">
-        <v>10011</v>
+        <v>10008</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>42</v>
@@ -2888,17 +2778,17 @@
       <c r="H13" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="8">
-        <v>1601296200</v>
+      <c r="I13" s="36">
+        <v>1600691400</v>
       </c>
       <c r="J13" s="14">
-        <v>1601298000</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1601049600</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1601308799</v>
+        <v>1600693200</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1600444800</v>
+      </c>
+      <c r="L13">
+        <v>1600703999</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>38</v>
@@ -2942,13 +2832,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6">
-        <v>10012</v>
+        <v>10009</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>42</v>
@@ -2965,17 +2855,17 @@
       <c r="H14" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="8">
-        <v>1601469000</v>
+      <c r="I14" s="36">
+        <v>1600864200</v>
       </c>
       <c r="J14" s="14">
-        <v>1601470800</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1601308800</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1601481599</v>
+        <v>1600866000</v>
+      </c>
+      <c r="K14" s="36">
+        <v>1600704000</v>
+      </c>
+      <c r="L14">
+        <v>1600876799</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>38</v>
@@ -3019,13 +2909,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6">
-        <v>10013</v>
+        <v>10010</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>42</v>
@@ -3043,16 +2933,16 @@
         <v>280</v>
       </c>
       <c r="I15" s="8">
-        <v>1601641800</v>
+        <v>1601037000</v>
       </c>
       <c r="J15" s="14">
-        <v>1601643600</v>
+        <v>1601038800</v>
       </c>
       <c r="K15" s="8">
-        <v>1601481600</v>
+        <v>1600876800</v>
       </c>
       <c r="L15" s="8">
-        <v>1601654399</v>
+        <v>1601049599</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>38</v>
@@ -3096,13 +2986,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>42</v>
@@ -3120,16 +3010,16 @@
         <v>280</v>
       </c>
       <c r="I16" s="8">
-        <v>1601901000</v>
+        <v>1601296200</v>
       </c>
       <c r="J16" s="14">
-        <v>1601902800</v>
+        <v>1601298000</v>
       </c>
       <c r="K16" s="8">
-        <v>1601654400</v>
+        <v>1601049600</v>
       </c>
       <c r="L16" s="8">
-        <v>1601913599</v>
+        <v>1601308799</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>38</v>
@@ -3173,13 +3063,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6">
-        <v>10015</v>
+        <v>10012</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>42</v>
@@ -3197,16 +3087,16 @@
         <v>280</v>
       </c>
       <c r="I17" s="8">
-        <v>1602073800</v>
+        <v>1601469000</v>
       </c>
       <c r="J17" s="14">
-        <v>1602075600</v>
+        <v>1601470800</v>
       </c>
       <c r="K17" s="8">
-        <v>1601913600</v>
+        <v>1601308800</v>
       </c>
       <c r="L17" s="8">
-        <v>1602086399</v>
+        <v>1601481599</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>38</v>
@@ -3250,13 +3140,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="6">
-        <v>10016</v>
+        <v>10013</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>42</v>
@@ -3274,16 +3164,16 @@
         <v>280</v>
       </c>
       <c r="I18" s="8">
-        <v>1602246600</v>
+        <v>1601641800</v>
       </c>
       <c r="J18" s="14">
-        <v>1602248400</v>
+        <v>1601643600</v>
       </c>
       <c r="K18" s="8">
-        <v>1602086400</v>
+        <v>1601481600</v>
       </c>
       <c r="L18" s="8">
-        <v>1602259199</v>
+        <v>1601654399</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>38</v>
@@ -3327,13 +3217,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="6">
-        <v>10017</v>
+        <v>10014</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>42</v>
@@ -3351,16 +3241,16 @@
         <v>280</v>
       </c>
       <c r="I19" s="8">
-        <v>1602505800</v>
+        <v>1601901000</v>
       </c>
       <c r="J19" s="14">
-        <v>1602507600</v>
+        <v>1601902800</v>
       </c>
       <c r="K19" s="8">
-        <v>1602259200</v>
+        <v>1601654400</v>
       </c>
       <c r="L19" s="8">
-        <v>1602518399</v>
+        <v>1601913599</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>38</v>
@@ -3404,13 +3294,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" s="6">
-        <v>10018</v>
+        <v>10015</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>42</v>
@@ -3428,16 +3318,16 @@
         <v>280</v>
       </c>
       <c r="I20" s="8">
-        <v>1602678600</v>
+        <v>1602073800</v>
       </c>
       <c r="J20" s="14">
-        <v>1602680400</v>
+        <v>1602075600</v>
       </c>
       <c r="K20" s="8">
-        <v>1602518400</v>
+        <v>1601913600</v>
       </c>
       <c r="L20" s="8">
-        <v>1602691199</v>
+        <v>1602086399</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>38</v>
@@ -3481,13 +3371,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6">
-        <v>10019</v>
+        <v>10016</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>42</v>
@@ -3505,16 +3395,16 @@
         <v>280</v>
       </c>
       <c r="I21" s="8">
-        <v>1602851400</v>
+        <v>1602246600</v>
       </c>
       <c r="J21" s="14">
-        <v>1602853200</v>
+        <v>1602248400</v>
       </c>
       <c r="K21" s="8">
-        <v>1602691200</v>
+        <v>1602086400</v>
       </c>
       <c r="L21" s="8">
-        <v>1602863999</v>
+        <v>1602259199</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>38</v>
@@ -3558,13 +3448,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6">
-        <v>10020</v>
+        <v>10017</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>42</v>
@@ -3582,16 +3472,16 @@
         <v>280</v>
       </c>
       <c r="I22" s="8">
-        <v>1603110600</v>
+        <v>1602505800</v>
       </c>
       <c r="J22" s="14">
-        <v>1603112400</v>
+        <v>1602507600</v>
       </c>
       <c r="K22" s="8">
-        <v>1602864000</v>
+        <v>1602259200</v>
       </c>
       <c r="L22" s="8">
-        <v>1603123199</v>
+        <v>1602518399</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>38</v>
@@ -3635,13 +3525,13 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6">
-        <v>10021</v>
+        <v>10018</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>42</v>
@@ -3659,16 +3549,16 @@
         <v>280</v>
       </c>
       <c r="I23" s="8">
-        <v>1603283400</v>
+        <v>1602678600</v>
       </c>
       <c r="J23" s="14">
-        <v>1603285200</v>
+        <v>1602680400</v>
       </c>
       <c r="K23" s="8">
-        <v>1603123200</v>
+        <v>1602518400</v>
       </c>
       <c r="L23" s="8">
-        <v>1603295999</v>
+        <v>1602691199</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>38</v>
@@ -3712,13 +3602,13 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" s="6">
-        <v>10022</v>
+        <v>10019</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>42</v>
@@ -3736,16 +3626,16 @@
         <v>280</v>
       </c>
       <c r="I24" s="8">
-        <v>1603456200</v>
+        <v>1602851400</v>
       </c>
       <c r="J24" s="14">
-        <v>1603458000</v>
+        <v>1602853200</v>
       </c>
       <c r="K24" s="8">
-        <v>1603296000</v>
+        <v>1602691200</v>
       </c>
       <c r="L24" s="8">
-        <v>1603468799</v>
+        <v>1602863999</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>38</v>
@@ -3789,13 +3679,13 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="6">
-        <v>10023</v>
+        <v>10020</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>42</v>
@@ -3813,16 +3703,16 @@
         <v>280</v>
       </c>
       <c r="I25" s="8">
-        <v>1603715400</v>
+        <v>1603110600</v>
       </c>
       <c r="J25" s="14">
-        <v>1603717200</v>
+        <v>1603112400</v>
       </c>
       <c r="K25" s="8">
-        <v>1603468800</v>
+        <v>1602864000</v>
       </c>
       <c r="L25" s="8">
-        <v>1603727999</v>
+        <v>1603123199</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>38</v>
@@ -3866,13 +3756,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26" s="6">
-        <v>10024</v>
+        <v>10021</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>42</v>
@@ -3890,16 +3780,16 @@
         <v>280</v>
       </c>
       <c r="I26" s="8">
-        <v>1603888200</v>
+        <v>1603283400</v>
       </c>
       <c r="J26" s="14">
-        <v>1603890000</v>
+        <v>1603285200</v>
       </c>
       <c r="K26" s="8">
-        <v>1603728000</v>
+        <v>1603123200</v>
       </c>
       <c r="L26" s="8">
-        <v>1603900799</v>
+        <v>1603295999</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>38</v>
@@ -3943,13 +3833,13 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" s="6">
-        <v>10025</v>
+        <v>10022</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>42</v>
@@ -3967,16 +3857,16 @@
         <v>280</v>
       </c>
       <c r="I27" s="8">
-        <v>1604061000</v>
+        <v>1603456200</v>
       </c>
       <c r="J27" s="14">
-        <v>1604062800</v>
+        <v>1603458000</v>
       </c>
       <c r="K27" s="8">
-        <v>1603900800</v>
+        <v>1603296000</v>
       </c>
       <c r="L27" s="8">
-        <v>1604073599</v>
+        <v>1603468799</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>38</v>
@@ -4020,13 +3910,13 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6">
-        <v>10026</v>
+        <v>10023</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>42</v>
@@ -4044,16 +3934,16 @@
         <v>280</v>
       </c>
       <c r="I28" s="8">
-        <v>1604320200</v>
+        <v>1603715400</v>
       </c>
       <c r="J28" s="14">
-        <v>1604322000</v>
+        <v>1603717200</v>
       </c>
       <c r="K28" s="8">
-        <v>1604073600</v>
+        <v>1603468800</v>
       </c>
       <c r="L28" s="8">
-        <v>1604332799</v>
+        <v>1603727999</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>38</v>
@@ -4097,13 +3987,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" s="6">
-        <v>10027</v>
+        <v>10024</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>42</v>
@@ -4121,16 +4011,16 @@
         <v>280</v>
       </c>
       <c r="I29" s="8">
-        <v>1604493000</v>
+        <v>1603888200</v>
       </c>
       <c r="J29" s="14">
-        <v>1604494800</v>
+        <v>1603890000</v>
       </c>
       <c r="K29" s="8">
-        <v>1604332800</v>
+        <v>1603728000</v>
       </c>
       <c r="L29" s="8">
-        <v>1604505599</v>
+        <v>1603900799</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>38</v>
@@ -4174,13 +4064,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6">
-        <v>10028</v>
+        <v>10025</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>42</v>
@@ -4198,16 +4088,16 @@
         <v>280</v>
       </c>
       <c r="I30" s="8">
-        <v>1604665800</v>
+        <v>1604061000</v>
       </c>
       <c r="J30" s="14">
-        <v>1604667600</v>
+        <v>1604062800</v>
       </c>
       <c r="K30" s="8">
-        <v>1604505600</v>
+        <v>1603900800</v>
       </c>
       <c r="L30" s="8">
-        <v>1604678399</v>
+        <v>1604073599</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>38</v>
@@ -4251,13 +4141,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" s="6">
-        <v>10029</v>
+        <v>10026</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>42</v>
@@ -4275,16 +4165,16 @@
         <v>280</v>
       </c>
       <c r="I31" s="8">
-        <v>1604925000</v>
+        <v>1604320200</v>
       </c>
       <c r="J31" s="14">
-        <v>1604926800</v>
+        <v>1604322000</v>
       </c>
       <c r="K31" s="8">
-        <v>1604678400</v>
+        <v>1604073600</v>
       </c>
       <c r="L31" s="8">
-        <v>1604937599</v>
+        <v>1604332799</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>38</v>
@@ -4328,13 +4218,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="6">
-        <v>10030</v>
+        <v>10027</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>42</v>
@@ -4352,16 +4242,16 @@
         <v>280</v>
       </c>
       <c r="I32" s="8">
-        <v>1605097800</v>
+        <v>1604493000</v>
       </c>
       <c r="J32" s="14">
-        <v>1605099600</v>
+        <v>1604494800</v>
       </c>
       <c r="K32" s="8">
-        <v>1604937600</v>
+        <v>1604332800</v>
       </c>
       <c r="L32" s="8">
-        <v>1605110399</v>
+        <v>1604505599</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>38</v>
@@ -4405,13 +4295,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C33" s="6">
-        <v>10031</v>
+        <v>10028</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>42</v>
@@ -4429,16 +4319,16 @@
         <v>280</v>
       </c>
       <c r="I33" s="8">
-        <v>1605270600</v>
+        <v>1604665800</v>
       </c>
       <c r="J33" s="14">
-        <v>1605272400</v>
+        <v>1604667600</v>
       </c>
       <c r="K33" s="8">
-        <v>1605110400</v>
+        <v>1604505600</v>
       </c>
       <c r="L33" s="8">
-        <v>1605283199</v>
+        <v>1604678399</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>38</v>
@@ -4482,13 +4372,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="6">
-        <v>10032</v>
+        <v>10029</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>42</v>
@@ -4506,16 +4396,16 @@
         <v>280</v>
       </c>
       <c r="I34" s="8">
-        <v>1605529800</v>
+        <v>1604925000</v>
       </c>
       <c r="J34" s="14">
-        <v>1605531600</v>
+        <v>1604926800</v>
       </c>
       <c r="K34" s="8">
-        <v>1605283200</v>
+        <v>1604678400</v>
       </c>
       <c r="L34" s="8">
-        <v>1605542399</v>
+        <v>1604937599</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>38</v>
@@ -4559,13 +4449,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C35" s="6">
-        <v>10033</v>
+        <v>10030</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>42</v>
@@ -4583,16 +4473,16 @@
         <v>280</v>
       </c>
       <c r="I35" s="8">
-        <v>1605702600</v>
+        <v>1605097800</v>
       </c>
       <c r="J35" s="14">
-        <v>1605704400</v>
+        <v>1605099600</v>
       </c>
       <c r="K35" s="8">
-        <v>1605542400</v>
+        <v>1604937600</v>
       </c>
       <c r="L35" s="8">
-        <v>1605715199</v>
+        <v>1605110399</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>38</v>
@@ -4636,13 +4526,13 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" s="6">
-        <v>10034</v>
+        <v>10031</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>42</v>
@@ -4660,16 +4550,16 @@
         <v>280</v>
       </c>
       <c r="I36" s="8">
-        <v>1605875400</v>
+        <v>1605270600</v>
       </c>
       <c r="J36" s="14">
-        <v>1605877200</v>
+        <v>1605272400</v>
       </c>
       <c r="K36" s="8">
-        <v>1605715200</v>
+        <v>1605110400</v>
       </c>
       <c r="L36" s="8">
-        <v>1605887999</v>
+        <v>1605283199</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>38</v>
@@ -4713,13 +4603,13 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" s="6">
-        <v>10035</v>
+        <v>10032</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>42</v>
@@ -4737,16 +4627,16 @@
         <v>280</v>
       </c>
       <c r="I37" s="8">
-        <v>1606134600</v>
+        <v>1605529800</v>
       </c>
       <c r="J37" s="14">
-        <v>1606136400</v>
+        <v>1605531600</v>
       </c>
       <c r="K37" s="8">
-        <v>1605888000</v>
+        <v>1605283200</v>
       </c>
       <c r="L37" s="8">
-        <v>1606147199</v>
+        <v>1605542399</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>38</v>
@@ -4790,13 +4680,13 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6">
-        <v>10036</v>
+        <v>10033</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>42</v>
@@ -4814,16 +4704,16 @@
         <v>280</v>
       </c>
       <c r="I38" s="8">
-        <v>1606307400</v>
+        <v>1605702600</v>
       </c>
       <c r="J38" s="14">
-        <v>1606309200</v>
+        <v>1605704400</v>
       </c>
       <c r="K38" s="8">
-        <v>1606147200</v>
+        <v>1605542400</v>
       </c>
       <c r="L38" s="8">
-        <v>1606319999</v>
+        <v>1605715199</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>38</v>
@@ -4867,13 +4757,13 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="6">
-        <v>10037</v>
+        <v>10034</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>42</v>
@@ -4891,16 +4781,16 @@
         <v>280</v>
       </c>
       <c r="I39" s="8">
-        <v>1606480200</v>
+        <v>1605875400</v>
       </c>
       <c r="J39" s="14">
-        <v>1606482000</v>
+        <v>1605877200</v>
       </c>
       <c r="K39" s="8">
-        <v>1606320000</v>
+        <v>1605715200</v>
       </c>
       <c r="L39" s="8">
-        <v>1606492799</v>
+        <v>1605887999</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>38</v>
@@ -4944,13 +4834,13 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" s="6">
-        <v>10038</v>
+        <v>10035</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>42</v>
@@ -4968,16 +4858,16 @@
         <v>280</v>
       </c>
       <c r="I40" s="8">
-        <v>1606739400</v>
+        <v>1606134600</v>
       </c>
       <c r="J40" s="14">
-        <v>1606741200</v>
+        <v>1606136400</v>
       </c>
       <c r="K40" s="8">
-        <v>1606492800</v>
+        <v>1605888000</v>
       </c>
       <c r="L40" s="8">
-        <v>1606751999</v>
+        <v>1606147199</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>38</v>
@@ -5021,13 +4911,13 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="6">
-        <v>10039</v>
+        <v>10036</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>42</v>
@@ -5045,16 +4935,16 @@
         <v>280</v>
       </c>
       <c r="I41" s="8">
-        <v>1606912200</v>
+        <v>1606307400</v>
       </c>
       <c r="J41" s="14">
-        <v>1606914000</v>
+        <v>1606309200</v>
       </c>
       <c r="K41" s="8">
-        <v>1606752000</v>
+        <v>1606147200</v>
       </c>
       <c r="L41" s="8">
-        <v>1606924799</v>
+        <v>1606319999</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>38</v>
@@ -5098,13 +4988,13 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C42" s="6">
-        <v>10040</v>
+        <v>10037</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>42</v>
@@ -5122,16 +5012,16 @@
         <v>280</v>
       </c>
       <c r="I42" s="8">
-        <v>1607085000</v>
+        <v>1606480200</v>
       </c>
       <c r="J42" s="14">
-        <v>1607086800</v>
+        <v>1606482000</v>
       </c>
       <c r="K42" s="8">
-        <v>1606924800</v>
+        <v>1606320000</v>
       </c>
       <c r="L42" s="8">
-        <v>1607097599</v>
+        <v>1606492799</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>38</v>
@@ -5175,13 +5065,13 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C43" s="6">
-        <v>10041</v>
+        <v>10038</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>42</v>
@@ -5199,16 +5089,16 @@
         <v>280</v>
       </c>
       <c r="I43" s="8">
-        <v>1607344200</v>
+        <v>1606739400</v>
       </c>
       <c r="J43" s="14">
-        <v>1607346000</v>
+        <v>1606741200</v>
       </c>
       <c r="K43" s="8">
-        <v>1607097600</v>
+        <v>1606492800</v>
       </c>
       <c r="L43" s="8">
-        <v>1607356799</v>
+        <v>1606751999</v>
       </c>
       <c r="M43" s="16" t="s">
         <v>38</v>
@@ -5252,13 +5142,13 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C44" s="6">
-        <v>10042</v>
+        <v>10039</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>42</v>
@@ -5276,16 +5166,16 @@
         <v>280</v>
       </c>
       <c r="I44" s="8">
-        <v>1607517000</v>
+        <v>1606912200</v>
       </c>
       <c r="J44" s="14">
-        <v>1607518800</v>
+        <v>1606914000</v>
       </c>
       <c r="K44" s="8">
-        <v>1607356800</v>
+        <v>1606752000</v>
       </c>
       <c r="L44" s="8">
-        <v>1607529599</v>
+        <v>1606924799</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>38</v>
@@ -5329,13 +5219,13 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C45" s="6">
-        <v>10043</v>
+        <v>10040</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>42</v>
@@ -5353,16 +5243,16 @@
         <v>280</v>
       </c>
       <c r="I45" s="8">
-        <v>1607689800</v>
+        <v>1607085000</v>
       </c>
       <c r="J45" s="14">
-        <v>1607691600</v>
+        <v>1607086800</v>
       </c>
       <c r="K45" s="8">
-        <v>1607529600</v>
+        <v>1606924800</v>
       </c>
       <c r="L45" s="8">
-        <v>1607702399</v>
+        <v>1607097599</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>38</v>
@@ -5406,13 +5296,13 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="6">
-        <v>10044</v>
+        <v>10041</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>42</v>
@@ -5430,16 +5320,16 @@
         <v>280</v>
       </c>
       <c r="I46" s="8">
-        <v>1607949000</v>
+        <v>1607344200</v>
       </c>
       <c r="J46" s="14">
-        <v>1607950800</v>
+        <v>1607346000</v>
       </c>
       <c r="K46" s="8">
-        <v>1607702400</v>
+        <v>1607097600</v>
       </c>
       <c r="L46" s="8">
-        <v>1607961599</v>
+        <v>1607356799</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>38</v>
@@ -5483,13 +5373,13 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" s="6">
-        <v>10045</v>
+        <v>10042</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>42</v>
@@ -5507,16 +5397,16 @@
         <v>280</v>
       </c>
       <c r="I47" s="8">
-        <v>1608121800</v>
+        <v>1607517000</v>
       </c>
       <c r="J47" s="14">
-        <v>1608123600</v>
+        <v>1607518800</v>
       </c>
       <c r="K47" s="8">
-        <v>1607961600</v>
+        <v>1607356800</v>
       </c>
       <c r="L47" s="8">
-        <v>1608134399</v>
+        <v>1607529599</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>38</v>
@@ -5560,13 +5450,13 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48" s="6">
-        <v>10046</v>
+        <v>10043</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>42</v>
@@ -5584,16 +5474,16 @@
         <v>280</v>
       </c>
       <c r="I48" s="8">
-        <v>1608294600</v>
+        <v>1607689800</v>
       </c>
       <c r="J48" s="14">
-        <v>1608296400</v>
+        <v>1607691600</v>
       </c>
       <c r="K48" s="8">
-        <v>1608134400</v>
+        <v>1607529600</v>
       </c>
       <c r="L48" s="8">
-        <v>1608307199</v>
+        <v>1607702399</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>38</v>
@@ -5637,13 +5527,13 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" s="6">
-        <v>10047</v>
+        <v>10044</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>42</v>
@@ -5661,16 +5551,16 @@
         <v>280</v>
       </c>
       <c r="I49" s="8">
-        <v>1608553800</v>
+        <v>1607949000</v>
       </c>
       <c r="J49" s="14">
-        <v>1608555600</v>
+        <v>1607950800</v>
       </c>
       <c r="K49" s="8">
-        <v>1608307200</v>
+        <v>1607702400</v>
       </c>
       <c r="L49" s="8">
-        <v>1608566399</v>
+        <v>1607961599</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>38</v>
@@ -5714,13 +5604,13 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" s="6">
-        <v>10048</v>
+        <v>10045</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>42</v>
@@ -5738,16 +5628,16 @@
         <v>280</v>
       </c>
       <c r="I50" s="8">
-        <v>1608726600</v>
+        <v>1608121800</v>
       </c>
       <c r="J50" s="14">
-        <v>1608728400</v>
+        <v>1608123600</v>
       </c>
       <c r="K50" s="8">
-        <v>1608566400</v>
+        <v>1607961600</v>
       </c>
       <c r="L50" s="8">
-        <v>1608739199</v>
+        <v>1608134399</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>38</v>
@@ -5789,92 +5679,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26">
-        <v>50</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="28">
-        <v>10049</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="30">
-        <v>0</v>
-      </c>
-      <c r="G51" s="30">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="6">
+        <v>10046</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
         <v>1</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>280</v>
       </c>
       <c r="I51" s="8">
-        <v>1608899400</v>
-      </c>
-      <c r="J51" s="31">
-        <v>1608901200</v>
+        <v>1608294600</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1608296400</v>
       </c>
       <c r="K51" s="8">
-        <v>1608739200</v>
-      </c>
-      <c r="L51" s="30">
-        <v>1608911999</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N51" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="33" t="s">
+        <v>1608134400</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1608307199</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="17" t="s">
         <v>46</v>
       </c>
       <c r="P51" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="Q51" s="28">
-        <v>100</v>
-      </c>
-      <c r="R51" s="26">
-        <v>0</v>
-      </c>
-      <c r="S51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="T51" s="34">
-        <v>1</v>
-      </c>
-      <c r="U51" s="26">
-        <v>1</v>
-      </c>
-      <c r="V51" s="33" t="s">
+      <c r="Q51" s="5">
+        <v>100</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="10">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51" s="17" t="s">
         <v>46</v>
       </c>
       <c r="W51" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="X51" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y51" s="26">
+      <c r="X51" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" s="6">
-        <v>10050</v>
+        <v>10047</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>42</v>
@@ -5892,16 +5782,16 @@
         <v>280</v>
       </c>
       <c r="I52" s="8">
-        <v>1609158600</v>
+        <v>1608553800</v>
       </c>
       <c r="J52" s="14">
-        <v>1609160400</v>
+        <v>1608555600</v>
       </c>
       <c r="K52" s="8">
-        <v>1608912000</v>
+        <v>1608307200</v>
       </c>
       <c r="L52" s="8">
-        <v>1609171199</v>
+        <v>1608566399</v>
       </c>
       <c r="M52" s="16" t="s">
         <v>38</v>
@@ -5945,13 +5835,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C53" s="6">
-        <v>10051</v>
+        <v>10048</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>42</v>
@@ -5969,16 +5859,16 @@
         <v>280</v>
       </c>
       <c r="I53" s="8">
-        <v>1609331400</v>
+        <v>1608726600</v>
       </c>
       <c r="J53" s="14">
-        <v>1609333200</v>
+        <v>1608728400</v>
       </c>
       <c r="K53" s="8">
-        <v>1609171200</v>
+        <v>1608566400</v>
       </c>
       <c r="L53" s="8">
-        <v>1609343999</v>
+        <v>1608739199</v>
       </c>
       <c r="M53" s="16" t="s">
         <v>38</v>
@@ -6020,92 +5910,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="6">
-        <v>10052</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
+    <row r="54" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26">
+        <v>50</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="28">
+        <v>10049</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="30">
+        <v>0</v>
+      </c>
+      <c r="G54" s="30">
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>280</v>
       </c>
       <c r="I54" s="8">
-        <v>1609504200</v>
-      </c>
-      <c r="J54" s="14">
-        <v>1609506000</v>
+        <v>1608899400</v>
+      </c>
+      <c r="J54" s="31">
+        <v>1608901200</v>
       </c>
       <c r="K54" s="8">
-        <v>1609344000</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1609516799</v>
-      </c>
-      <c r="M54" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="17" t="s">
+        <v>1608739200</v>
+      </c>
+      <c r="L54" s="30">
+        <v>1608911999</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="33" t="s">
         <v>46</v>
       </c>
       <c r="P54" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="Q54" s="5">
-        <v>100</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54" t="s">
-        <v>41</v>
-      </c>
-      <c r="T54" s="10">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="V54" s="17" t="s">
+      <c r="Q54" s="28">
+        <v>100</v>
+      </c>
+      <c r="R54" s="26">
+        <v>0</v>
+      </c>
+      <c r="S54" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="34">
+        <v>1</v>
+      </c>
+      <c r="U54" s="26">
+        <v>1</v>
+      </c>
+      <c r="V54" s="33" t="s">
         <v>46</v>
       </c>
       <c r="W54" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="X54" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y54">
+      <c r="X54" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y54" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C55" s="6">
-        <v>10053</v>
+        <v>10050</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>42</v>
@@ -6123,16 +6013,16 @@
         <v>280</v>
       </c>
       <c r="I55" s="8">
-        <v>1609763400</v>
+        <v>1609158600</v>
       </c>
       <c r="J55" s="14">
-        <v>1609765200</v>
+        <v>1609160400</v>
       </c>
       <c r="K55" s="8">
-        <v>1609516800</v>
+        <v>1608912000</v>
       </c>
       <c r="L55" s="8">
-        <v>1609775999</v>
+        <v>1609171199</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>38</v>
@@ -6176,13 +6066,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C56" s="6">
-        <v>10054</v>
+        <v>10051</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>42</v>
@@ -6200,16 +6090,16 @@
         <v>280</v>
       </c>
       <c r="I56" s="8">
-        <v>1609936200</v>
+        <v>1609331400</v>
       </c>
       <c r="J56" s="14">
-        <v>1609938000</v>
+        <v>1609333200</v>
       </c>
       <c r="K56" s="8">
-        <v>1609776000</v>
+        <v>1609171200</v>
       </c>
       <c r="L56" s="8">
-        <v>1609948799</v>
+        <v>1609343999</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>38</v>
@@ -6253,13 +6143,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" s="6">
-        <v>10055</v>
+        <v>10052</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>42</v>
@@ -6277,16 +6167,16 @@
         <v>280</v>
       </c>
       <c r="I57" s="8">
-        <v>1610109000</v>
+        <v>1609504200</v>
       </c>
       <c r="J57" s="14">
-        <v>1610110800</v>
+        <v>1609506000</v>
       </c>
       <c r="K57" s="8">
-        <v>1609948800</v>
+        <v>1609344000</v>
       </c>
       <c r="L57" s="8">
-        <v>1610121599</v>
+        <v>1609516799</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>38</v>
@@ -6330,13 +6220,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C58" s="6">
-        <v>10056</v>
+        <v>10053</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>42</v>
@@ -6354,16 +6244,16 @@
         <v>280</v>
       </c>
       <c r="I58" s="8">
-        <v>1610368200</v>
+        <v>1609763400</v>
       </c>
       <c r="J58" s="14">
-        <v>1610370000</v>
+        <v>1609765200</v>
       </c>
       <c r="K58" s="8">
-        <v>1610121600</v>
+        <v>1609516800</v>
       </c>
       <c r="L58" s="8">
-        <v>1610380799</v>
+        <v>1609775999</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>38</v>
@@ -6407,13 +6297,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" s="6">
-        <v>10057</v>
+        <v>10054</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>42</v>
@@ -6431,16 +6321,16 @@
         <v>280</v>
       </c>
       <c r="I59" s="8">
-        <v>1610541000</v>
+        <v>1609936200</v>
       </c>
       <c r="J59" s="14">
-        <v>1610542800</v>
+        <v>1609938000</v>
       </c>
       <c r="K59" s="8">
-        <v>1610380800</v>
+        <v>1609776000</v>
       </c>
       <c r="L59" s="8">
-        <v>1610553599</v>
+        <v>1609948799</v>
       </c>
       <c r="M59" s="16" t="s">
         <v>38</v>
@@ -6484,13 +6374,13 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" s="6">
-        <v>10058</v>
+        <v>10055</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>42</v>
@@ -6508,16 +6398,16 @@
         <v>280</v>
       </c>
       <c r="I60" s="8">
-        <v>1610713800</v>
+        <v>1610109000</v>
       </c>
       <c r="J60" s="14">
-        <v>1610715600</v>
+        <v>1610110800</v>
       </c>
       <c r="K60" s="8">
-        <v>1610553600</v>
+        <v>1609948800</v>
       </c>
       <c r="L60" s="8">
-        <v>1610726399</v>
+        <v>1610121599</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>38</v>
@@ -6561,13 +6451,13 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C61" s="6">
-        <v>10059</v>
+        <v>10056</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>42</v>
@@ -6585,16 +6475,16 @@
         <v>280</v>
       </c>
       <c r="I61" s="8">
-        <v>1610973000</v>
+        <v>1610368200</v>
       </c>
       <c r="J61" s="14">
-        <v>1610974800</v>
+        <v>1610370000</v>
       </c>
       <c r="K61" s="8">
-        <v>1610726400</v>
+        <v>1610121600</v>
       </c>
       <c r="L61" s="8">
-        <v>1610985599</v>
+        <v>1610380799</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>38</v>
@@ -6638,13 +6528,13 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C62" s="6">
-        <v>10060</v>
+        <v>10057</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>42</v>
@@ -6662,16 +6552,16 @@
         <v>280</v>
       </c>
       <c r="I62" s="8">
-        <v>1611145800</v>
+        <v>1610541000</v>
       </c>
       <c r="J62" s="14">
-        <v>1611147600</v>
+        <v>1610542800</v>
       </c>
       <c r="K62" s="8">
-        <v>1610985600</v>
+        <v>1610380800</v>
       </c>
       <c r="L62" s="8">
-        <v>1611158399</v>
+        <v>1610553599</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>38</v>
@@ -6715,13 +6605,13 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C63" s="6">
-        <v>10061</v>
+        <v>10058</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>42</v>
@@ -6739,16 +6629,16 @@
         <v>280</v>
       </c>
       <c r="I63" s="8">
-        <v>1611318600</v>
+        <v>1610713800</v>
       </c>
       <c r="J63" s="14">
-        <v>1611320400</v>
+        <v>1610715600</v>
       </c>
       <c r="K63" s="8">
-        <v>1611158400</v>
+        <v>1610553600</v>
       </c>
       <c r="L63" s="8">
-        <v>1611331199</v>
+        <v>1610726399</v>
       </c>
       <c r="M63" s="16" t="s">
         <v>38</v>
@@ -6792,13 +6682,13 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C64" s="6">
-        <v>10062</v>
+        <v>10059</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>42</v>
@@ -6816,16 +6706,16 @@
         <v>280</v>
       </c>
       <c r="I64" s="8">
-        <v>1611577800</v>
+        <v>1610973000</v>
       </c>
       <c r="J64" s="14">
-        <v>1611579600</v>
+        <v>1610974800</v>
       </c>
       <c r="K64" s="8">
-        <v>1611331200</v>
+        <v>1610726400</v>
       </c>
       <c r="L64" s="8">
-        <v>1611590399</v>
+        <v>1610985599</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>38</v>
@@ -6869,13 +6759,13 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C65" s="6">
-        <v>10063</v>
+        <v>10060</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>42</v>
@@ -6893,16 +6783,16 @@
         <v>280</v>
       </c>
       <c r="I65" s="8">
-        <v>1611750600</v>
+        <v>1611145800</v>
       </c>
       <c r="J65" s="14">
-        <v>1611752400</v>
+        <v>1611147600</v>
       </c>
       <c r="K65" s="8">
-        <v>1611590400</v>
+        <v>1610985600</v>
       </c>
       <c r="L65" s="8">
-        <v>1611763199</v>
+        <v>1611158399</v>
       </c>
       <c r="M65" s="16" t="s">
         <v>38</v>
@@ -6946,13 +6836,13 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6">
-        <v>10064</v>
+        <v>10061</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>42</v>
@@ -6970,16 +6860,16 @@
         <v>280</v>
       </c>
       <c r="I66" s="8">
-        <v>1611923400</v>
+        <v>1611318600</v>
       </c>
       <c r="J66" s="14">
-        <v>1611925200</v>
+        <v>1611320400</v>
       </c>
       <c r="K66" s="8">
-        <v>1611763200</v>
+        <v>1611158400</v>
       </c>
       <c r="L66" s="8">
-        <v>1611935999</v>
+        <v>1611331199</v>
       </c>
       <c r="M66" s="16" t="s">
         <v>38</v>
@@ -7023,13 +6913,13 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C67" s="6">
-        <v>10065</v>
+        <v>10062</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>42</v>
@@ -7047,16 +6937,16 @@
         <v>280</v>
       </c>
       <c r="I67" s="8">
-        <v>1612182600</v>
+        <v>1611577800</v>
       </c>
       <c r="J67" s="14">
-        <v>1612184400</v>
+        <v>1611579600</v>
       </c>
       <c r="K67" s="8">
-        <v>1611936000</v>
+        <v>1611331200</v>
       </c>
       <c r="L67" s="8">
-        <v>1612195199</v>
+        <v>1611590399</v>
       </c>
       <c r="M67" s="16" t="s">
         <v>38</v>
@@ -7100,13 +6990,13 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C68" s="6">
-        <v>10066</v>
+        <v>10063</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>42</v>
@@ -7124,16 +7014,16 @@
         <v>280</v>
       </c>
       <c r="I68" s="8">
-        <v>1612355400</v>
+        <v>1611750600</v>
       </c>
       <c r="J68" s="14">
-        <v>1612357200</v>
+        <v>1611752400</v>
       </c>
       <c r="K68" s="8">
-        <v>1612195200</v>
+        <v>1611590400</v>
       </c>
       <c r="L68" s="8">
-        <v>1612367999</v>
+        <v>1611763199</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>38</v>
@@ -7177,13 +7067,13 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C69" s="6">
-        <v>10067</v>
+        <v>10064</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>42</v>
@@ -7201,16 +7091,16 @@
         <v>280</v>
       </c>
       <c r="I69" s="8">
-        <v>1612528200</v>
+        <v>1611923400</v>
       </c>
       <c r="J69" s="14">
-        <v>1612530000</v>
+        <v>1611925200</v>
       </c>
       <c r="K69" s="8">
-        <v>1612368000</v>
+        <v>1611763200</v>
       </c>
       <c r="L69" s="8">
-        <v>1612540799</v>
+        <v>1611935999</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>38</v>
@@ -7254,13 +7144,13 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C70" s="6">
-        <v>10068</v>
+        <v>10065</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>42</v>
@@ -7278,16 +7168,16 @@
         <v>280</v>
       </c>
       <c r="I70" s="8">
-        <v>1612787400</v>
+        <v>1612182600</v>
       </c>
       <c r="J70" s="14">
-        <v>1612789200</v>
+        <v>1612184400</v>
       </c>
       <c r="K70" s="8">
-        <v>1612540800</v>
+        <v>1611936000</v>
       </c>
       <c r="L70" s="8">
-        <v>1612799999</v>
+        <v>1612195199</v>
       </c>
       <c r="M70" s="16" t="s">
         <v>38</v>
@@ -7331,13 +7221,13 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C71" s="6">
-        <v>10069</v>
+        <v>10066</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>42</v>
@@ -7355,16 +7245,16 @@
         <v>280</v>
       </c>
       <c r="I71" s="8">
-        <v>1612960200</v>
+        <v>1612355400</v>
       </c>
       <c r="J71" s="14">
-        <v>1612962000</v>
+        <v>1612357200</v>
       </c>
       <c r="K71" s="8">
-        <v>1612800000</v>
+        <v>1612195200</v>
       </c>
       <c r="L71" s="8">
-        <v>1612972799</v>
+        <v>1612367999</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>38</v>
@@ -7408,13 +7298,13 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C72" s="6">
-        <v>10070</v>
+        <v>10067</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>42</v>
@@ -7432,16 +7322,16 @@
         <v>280</v>
       </c>
       <c r="I72" s="8">
-        <v>1613133000</v>
+        <v>1612528200</v>
       </c>
       <c r="J72" s="14">
-        <v>1613134800</v>
+        <v>1612530000</v>
       </c>
       <c r="K72" s="8">
-        <v>1612972800</v>
+        <v>1612368000</v>
       </c>
       <c r="L72" s="8">
-        <v>1613145599</v>
+        <v>1612540799</v>
       </c>
       <c r="M72" s="16" t="s">
         <v>38</v>
@@ -7485,13 +7375,13 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C73" s="6">
-        <v>10071</v>
+        <v>10068</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>42</v>
@@ -7509,16 +7399,16 @@
         <v>280</v>
       </c>
       <c r="I73" s="8">
-        <v>1613392200</v>
+        <v>1612787400</v>
       </c>
       <c r="J73" s="14">
-        <v>1613394000</v>
+        <v>1612789200</v>
       </c>
       <c r="K73" s="8">
-        <v>1613145600</v>
+        <v>1612540800</v>
       </c>
       <c r="L73" s="8">
-        <v>1613404799</v>
+        <v>1612799999</v>
       </c>
       <c r="M73" s="16" t="s">
         <v>38</v>
@@ -7562,13 +7452,13 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="6">
-        <v>10072</v>
+        <v>10069</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>42</v>
@@ -7586,16 +7476,16 @@
         <v>280</v>
       </c>
       <c r="I74" s="8">
-        <v>1613565000</v>
+        <v>1612960200</v>
       </c>
       <c r="J74" s="14">
-        <v>1613566800</v>
+        <v>1612962000</v>
       </c>
       <c r="K74" s="8">
-        <v>1613404800</v>
+        <v>1612800000</v>
       </c>
       <c r="L74" s="8">
-        <v>1613577599</v>
+        <v>1612972799</v>
       </c>
       <c r="M74" s="16" t="s">
         <v>38</v>
@@ -7639,13 +7529,13 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C75" s="6">
-        <v>10073</v>
+        <v>10070</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>42</v>
@@ -7663,16 +7553,16 @@
         <v>280</v>
       </c>
       <c r="I75" s="8">
-        <v>1613737800</v>
+        <v>1613133000</v>
       </c>
       <c r="J75" s="14">
-        <v>1613739600</v>
+        <v>1613134800</v>
       </c>
       <c r="K75" s="8">
-        <v>1613577600</v>
+        <v>1612972800</v>
       </c>
       <c r="L75" s="8">
-        <v>1613750399</v>
+        <v>1613145599</v>
       </c>
       <c r="M75" s="16" t="s">
         <v>38</v>
@@ -7716,13 +7606,13 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C76" s="6">
-        <v>10074</v>
+        <v>10071</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>42</v>
@@ -7740,16 +7630,16 @@
         <v>280</v>
       </c>
       <c r="I76" s="8">
-        <v>1613997000</v>
+        <v>1613392200</v>
       </c>
       <c r="J76" s="14">
-        <v>1613998800</v>
+        <v>1613394000</v>
       </c>
       <c r="K76" s="8">
-        <v>1613750400</v>
+        <v>1613145600</v>
       </c>
       <c r="L76" s="8">
-        <v>1614009599</v>
+        <v>1613404799</v>
       </c>
       <c r="M76" s="16" t="s">
         <v>38</v>
@@ -7793,13 +7683,13 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C77" s="6">
-        <v>10075</v>
+        <v>10072</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>42</v>
@@ -7817,16 +7707,16 @@
         <v>280</v>
       </c>
       <c r="I77" s="8">
-        <v>1614169800</v>
+        <v>1613565000</v>
       </c>
       <c r="J77" s="14">
-        <v>1614171600</v>
+        <v>1613566800</v>
       </c>
       <c r="K77" s="8">
-        <v>1614009600</v>
+        <v>1613404800</v>
       </c>
       <c r="L77" s="8">
-        <v>1614182399</v>
+        <v>1613577599</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>38</v>
@@ -7870,13 +7760,13 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78" s="6">
-        <v>10076</v>
+        <v>10073</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>42</v>
@@ -7894,16 +7784,16 @@
         <v>280</v>
       </c>
       <c r="I78" s="8">
-        <v>1614342600</v>
+        <v>1613737800</v>
       </c>
       <c r="J78" s="14">
-        <v>1614344400</v>
+        <v>1613739600</v>
       </c>
       <c r="K78" s="8">
-        <v>1614182400</v>
+        <v>1613577600</v>
       </c>
       <c r="L78" s="8">
-        <v>1614355199</v>
+        <v>1613750399</v>
       </c>
       <c r="M78" s="16" t="s">
         <v>38</v>
@@ -7947,13 +7837,13 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C79" s="6">
-        <v>10077</v>
+        <v>10074</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>42</v>
@@ -7970,17 +7860,17 @@
       <c r="H79" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I79" s="14">
-        <v>1614601800</v>
+      <c r="I79" s="8">
+        <v>1613997000</v>
       </c>
       <c r="J79" s="14">
-        <v>1614603600</v>
-      </c>
-      <c r="K79" s="14">
-        <v>1614355200</v>
+        <v>1613998800</v>
+      </c>
+      <c r="K79" s="8">
+        <v>1613750400</v>
       </c>
       <c r="L79" s="8">
-        <v>1614614399</v>
+        <v>1614009599</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>38</v>
@@ -8024,13 +7914,13 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="6">
-        <v>10078</v>
+        <v>10075</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>42</v>
@@ -8047,17 +7937,17 @@
       <c r="H80" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I80" s="14">
-        <v>1614774600</v>
+      <c r="I80" s="8">
+        <v>1614169800</v>
       </c>
       <c r="J80" s="14">
-        <v>1614776400</v>
-      </c>
-      <c r="K80" s="14">
-        <v>1614614400</v>
+        <v>1614171600</v>
+      </c>
+      <c r="K80" s="8">
+        <v>1614009600</v>
       </c>
       <c r="L80" s="8">
-        <v>1614787199</v>
+        <v>1614182399</v>
       </c>
       <c r="M80" s="16" t="s">
         <v>38</v>
@@ -8101,13 +7991,13 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C81" s="6">
-        <v>10079</v>
+        <v>10076</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>42</v>
@@ -8124,17 +8014,17 @@
       <c r="H81" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I81" s="14">
-        <v>1614947400</v>
+      <c r="I81" s="8">
+        <v>1614342600</v>
       </c>
       <c r="J81" s="14">
-        <v>1614949200</v>
-      </c>
-      <c r="K81" s="14">
-        <v>1614787200</v>
+        <v>1614344400</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1614182400</v>
       </c>
       <c r="L81" s="8">
-        <v>1614959999</v>
+        <v>1614355199</v>
       </c>
       <c r="M81" s="16" t="s">
         <v>38</v>
@@ -8178,13 +8068,13 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C82" s="6">
-        <v>10080</v>
+        <v>10077</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>42</v>
@@ -8202,16 +8092,16 @@
         <v>280</v>
       </c>
       <c r="I82" s="14">
-        <v>1615206600</v>
+        <v>1614601800</v>
       </c>
       <c r="J82" s="14">
-        <v>1615208400</v>
+        <v>1614603600</v>
       </c>
       <c r="K82" s="14">
-        <v>1614960000</v>
+        <v>1614355200</v>
       </c>
       <c r="L82" s="8">
-        <v>1615219199</v>
+        <v>1614614399</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>38</v>
@@ -8255,13 +8145,13 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C83" s="6">
-        <v>10081</v>
+        <v>10078</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>42</v>
@@ -8278,17 +8168,17 @@
       <c r="H83" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I83" s="36">
-        <v>1615379400</v>
+      <c r="I83" s="14">
+        <v>1614774600</v>
       </c>
       <c r="J83" s="14">
-        <v>1615381200</v>
-      </c>
-      <c r="K83" s="36">
-        <v>1615219200</v>
+        <v>1614776400</v>
+      </c>
+      <c r="K83" s="14">
+        <v>1614614400</v>
       </c>
       <c r="L83" s="8">
-        <v>1615391999</v>
+        <v>1614787199</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>38</v>
@@ -8332,13 +8222,13 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C84" s="6">
-        <v>10082</v>
+        <v>10079</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>42</v>
@@ -8355,17 +8245,17 @@
       <c r="H84" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I84" s="36">
-        <v>1615552200</v>
+      <c r="I84" s="14">
+        <v>1614947400</v>
       </c>
       <c r="J84" s="14">
-        <v>1615554000</v>
-      </c>
-      <c r="K84" s="36">
-        <v>1615392000</v>
+        <v>1614949200</v>
+      </c>
+      <c r="K84" s="14">
+        <v>1614787200</v>
       </c>
       <c r="L84" s="8">
-        <v>1615564799</v>
+        <v>1614959999</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>38</v>
@@ -8409,13 +8299,13 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C85" s="6">
-        <v>10083</v>
+        <v>10080</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>42</v>
@@ -8432,17 +8322,17 @@
       <c r="H85" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I85" s="36">
-        <v>1615811400</v>
+      <c r="I85" s="14">
+        <v>1615206600</v>
       </c>
       <c r="J85" s="14">
-        <v>1615813200</v>
-      </c>
-      <c r="K85" s="36">
-        <v>1615564800</v>
+        <v>1615208400</v>
+      </c>
+      <c r="K85" s="14">
+        <v>1614960000</v>
       </c>
       <c r="L85" s="8">
-        <v>1615823999</v>
+        <v>1615219199</v>
       </c>
       <c r="M85" s="16" t="s">
         <v>38</v>
@@ -8486,13 +8376,13 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C86" s="6">
-        <v>10084</v>
+        <v>10081</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>42</v>
@@ -8510,16 +8400,16 @@
         <v>280</v>
       </c>
       <c r="I86" s="36">
-        <v>1615984200</v>
+        <v>1615379400</v>
       </c>
       <c r="J86" s="14">
-        <v>1615986000</v>
+        <v>1615381200</v>
       </c>
       <c r="K86" s="36">
-        <v>1615824000</v>
+        <v>1615219200</v>
       </c>
       <c r="L86" s="8">
-        <v>1615996799</v>
+        <v>1615391999</v>
       </c>
       <c r="M86" s="16" t="s">
         <v>38</v>
@@ -8563,13 +8453,13 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C87" s="6">
-        <v>10085</v>
+        <v>10082</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>42</v>
@@ -8587,16 +8477,16 @@
         <v>280</v>
       </c>
       <c r="I87" s="36">
-        <v>1616157000</v>
+        <v>1615552200</v>
       </c>
       <c r="J87" s="14">
-        <v>1616158800</v>
+        <v>1615554000</v>
       </c>
       <c r="K87" s="36">
-        <v>1615996800</v>
+        <v>1615392000</v>
       </c>
       <c r="L87" s="8">
-        <v>1616169599</v>
+        <v>1615564799</v>
       </c>
       <c r="M87" s="16" t="s">
         <v>38</v>
@@ -8640,13 +8530,13 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C88" s="6">
-        <v>10086</v>
+        <v>10083</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>42</v>
@@ -8664,16 +8554,16 @@
         <v>280</v>
       </c>
       <c r="I88" s="36">
-        <v>1616416200</v>
+        <v>1615811400</v>
       </c>
       <c r="J88" s="14">
-        <v>1616418000</v>
+        <v>1615813200</v>
       </c>
       <c r="K88" s="36">
-        <v>1616169600</v>
+        <v>1615564800</v>
       </c>
       <c r="L88" s="8">
-        <v>1616428799</v>
+        <v>1615823999</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>38</v>
@@ -8717,13 +8607,13 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C89" s="6">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>42</v>
@@ -8740,17 +8630,17 @@
       <c r="H89" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I89" s="8">
-        <v>1616589000</v>
+      <c r="I89" s="36">
+        <v>1615984200</v>
       </c>
       <c r="J89" s="14">
-        <v>1616590800</v>
-      </c>
-      <c r="K89" s="8">
-        <v>1616428800</v>
+        <v>1615986000</v>
+      </c>
+      <c r="K89" s="36">
+        <v>1615824000</v>
       </c>
       <c r="L89" s="8">
-        <v>1616601599</v>
+        <v>1615996799</v>
       </c>
       <c r="M89" s="16" t="s">
         <v>38</v>
@@ -8794,13 +8684,13 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C90" s="6">
-        <v>10088</v>
+        <v>10085</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>42</v>
@@ -8817,17 +8707,17 @@
       <c r="H90" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I90" s="8">
-        <v>1616761800</v>
+      <c r="I90" s="36">
+        <v>1616157000</v>
       </c>
       <c r="J90" s="14">
-        <v>1616763600</v>
-      </c>
-      <c r="K90" s="8">
-        <v>1616601600</v>
+        <v>1616158800</v>
+      </c>
+      <c r="K90" s="36">
+        <v>1615996800</v>
       </c>
       <c r="L90" s="8">
-        <v>1616774399</v>
+        <v>1616169599</v>
       </c>
       <c r="M90" s="16" t="s">
         <v>38</v>
@@ -8871,13 +8761,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C91" s="6">
-        <v>10089</v>
+        <v>10086</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>42</v>
@@ -8894,17 +8784,17 @@
       <c r="H91" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I91" s="8">
-        <v>1617021000</v>
+      <c r="I91" s="36">
+        <v>1616416200</v>
       </c>
       <c r="J91" s="14">
-        <v>1617022800</v>
-      </c>
-      <c r="K91" s="8">
-        <v>1616774400</v>
+        <v>1616418000</v>
+      </c>
+      <c r="K91" s="36">
+        <v>1616169600</v>
       </c>
       <c r="L91" s="8">
-        <v>1617033599</v>
+        <v>1616428799</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>38</v>
@@ -8948,13 +8838,13 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C92" s="6">
-        <v>10090</v>
+        <v>10087</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>42</v>
@@ -8972,16 +8862,16 @@
         <v>280</v>
       </c>
       <c r="I92" s="8">
-        <v>1617193800</v>
+        <v>1616589000</v>
       </c>
       <c r="J92" s="14">
-        <v>1617195600</v>
+        <v>1616590800</v>
       </c>
       <c r="K92" s="8">
-        <v>1617033600</v>
+        <v>1616428800</v>
       </c>
       <c r="L92" s="8">
-        <v>1617206399</v>
+        <v>1616601599</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>38</v>
@@ -9025,13 +8915,13 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C93" s="6">
-        <v>10091</v>
+        <v>10088</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>42</v>
@@ -9049,16 +8939,16 @@
         <v>280</v>
       </c>
       <c r="I93" s="8">
-        <v>1617366600</v>
+        <v>1616761800</v>
       </c>
       <c r="J93" s="14">
-        <v>1617368400</v>
+        <v>1616763600</v>
       </c>
       <c r="K93" s="8">
-        <v>1617206400</v>
+        <v>1616601600</v>
       </c>
       <c r="L93" s="8">
-        <v>1617379199</v>
+        <v>1616774399</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>38</v>
@@ -9102,13 +8992,13 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C94" s="6">
-        <v>10092</v>
+        <v>10089</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>42</v>
@@ -9126,16 +9016,16 @@
         <v>280</v>
       </c>
       <c r="I94" s="8">
-        <v>1617625800</v>
+        <v>1617021000</v>
       </c>
       <c r="J94" s="14">
-        <v>1617627600</v>
+        <v>1617022800</v>
       </c>
       <c r="K94" s="8">
-        <v>1617379200</v>
+        <v>1616774400</v>
       </c>
       <c r="L94" s="8">
-        <v>1617638399</v>
+        <v>1617033599</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>38</v>
@@ -9179,13 +9069,13 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C95" s="6">
-        <v>10093</v>
+        <v>10090</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>42</v>
@@ -9203,16 +9093,16 @@
         <v>280</v>
       </c>
       <c r="I95" s="8">
-        <v>1617798600</v>
+        <v>1617193800</v>
       </c>
       <c r="J95" s="14">
-        <v>1617800400</v>
+        <v>1617195600</v>
       </c>
       <c r="K95" s="8">
-        <v>1617638400</v>
+        <v>1617033600</v>
       </c>
       <c r="L95" s="8">
-        <v>1617811199</v>
+        <v>1617206399</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>38</v>
@@ -9256,13 +9146,13 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C96" s="6">
-        <v>10094</v>
+        <v>10091</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>42</v>
@@ -9280,16 +9170,16 @@
         <v>280</v>
       </c>
       <c r="I96" s="8">
-        <v>1617971400</v>
+        <v>1617366600</v>
       </c>
       <c r="J96" s="14">
-        <v>1617973200</v>
+        <v>1617368400</v>
       </c>
       <c r="K96" s="8">
-        <v>1617811200</v>
+        <v>1617206400</v>
       </c>
       <c r="L96" s="8">
-        <v>1617983999</v>
+        <v>1617379199</v>
       </c>
       <c r="M96" s="16" t="s">
         <v>38</v>
@@ -9333,13 +9223,13 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C97" s="6">
-        <v>10095</v>
+        <v>10092</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>42</v>
@@ -9357,16 +9247,16 @@
         <v>280</v>
       </c>
       <c r="I97" s="8">
-        <v>1618230600</v>
+        <v>1617625800</v>
       </c>
       <c r="J97" s="14">
-        <v>1618232400</v>
+        <v>1617627600</v>
       </c>
       <c r="K97" s="8">
-        <v>1617984000</v>
+        <v>1617379200</v>
       </c>
       <c r="L97" s="8">
-        <v>1618243199</v>
+        <v>1617638399</v>
       </c>
       <c r="M97" s="16" t="s">
         <v>38</v>
@@ -9410,13 +9300,13 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C98" s="6">
-        <v>10096</v>
+        <v>10093</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>42</v>
@@ -9434,16 +9324,16 @@
         <v>280</v>
       </c>
       <c r="I98" s="8">
-        <v>1618403400</v>
+        <v>1617798600</v>
       </c>
       <c r="J98" s="14">
-        <v>1618405200</v>
+        <v>1617800400</v>
       </c>
       <c r="K98" s="8">
-        <v>1618243200</v>
+        <v>1617638400</v>
       </c>
       <c r="L98" s="8">
-        <v>1618415999</v>
+        <v>1617811199</v>
       </c>
       <c r="M98" s="16" t="s">
         <v>38</v>
@@ -9487,13 +9377,13 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C99" s="6">
-        <v>10097</v>
+        <v>10094</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>42</v>
@@ -9511,16 +9401,16 @@
         <v>280</v>
       </c>
       <c r="I99" s="8">
-        <v>1618576200</v>
+        <v>1617971400</v>
       </c>
       <c r="J99" s="14">
-        <v>1618578000</v>
+        <v>1617973200</v>
       </c>
       <c r="K99" s="8">
-        <v>1618416000</v>
+        <v>1617811200</v>
       </c>
       <c r="L99" s="8">
-        <v>1618588799</v>
+        <v>1617983999</v>
       </c>
       <c r="M99" s="16" t="s">
         <v>38</v>
@@ -9564,13 +9454,13 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C100" s="6">
-        <v>10098</v>
+        <v>10095</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>42</v>
@@ -9588,16 +9478,16 @@
         <v>280</v>
       </c>
       <c r="I100" s="8">
-        <v>1618835400</v>
+        <v>1618230600</v>
       </c>
       <c r="J100" s="14">
-        <v>1618837200</v>
+        <v>1618232400</v>
       </c>
       <c r="K100" s="8">
-        <v>1618588800</v>
+        <v>1617984000</v>
       </c>
       <c r="L100" s="8">
-        <v>1618847999</v>
+        <v>1618243199</v>
       </c>
       <c r="M100" s="16" t="s">
         <v>38</v>
@@ -9641,13 +9531,13 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C101" s="6">
-        <v>10099</v>
+        <v>10096</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>42</v>
@@ -9665,16 +9555,16 @@
         <v>280</v>
       </c>
       <c r="I101" s="8">
-        <v>1619008200</v>
+        <v>1618403400</v>
       </c>
       <c r="J101" s="14">
-        <v>1619010000</v>
+        <v>1618405200</v>
       </c>
       <c r="K101" s="8">
-        <v>1618848000</v>
+        <v>1618243200</v>
       </c>
       <c r="L101" s="8">
-        <v>1619020799</v>
+        <v>1618415999</v>
       </c>
       <c r="M101" s="16" t="s">
         <v>38</v>
@@ -9713,6 +9603,237 @@
         <v>39</v>
       </c>
       <c r="Y101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="6">
+        <v>10097</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I102" s="8">
+        <v>1618576200</v>
+      </c>
+      <c r="J102" s="14">
+        <v>1618578000</v>
+      </c>
+      <c r="K102" s="8">
+        <v>1618416000</v>
+      </c>
+      <c r="L102" s="8">
+        <v>1618588799</v>
+      </c>
+      <c r="M102" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P102" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>100</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="10">
+        <v>1</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W102" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="X102" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10098</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>1</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I103" s="8">
+        <v>1618835400</v>
+      </c>
+      <c r="J103" s="14">
+        <v>1618837200</v>
+      </c>
+      <c r="K103" s="8">
+        <v>1618588800</v>
+      </c>
+      <c r="L103" s="8">
+        <v>1618847999</v>
+      </c>
+      <c r="M103" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P103" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="10">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="V103" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W103" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="X103" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="6">
+        <v>10099</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I104" s="8">
+        <v>1619008200</v>
+      </c>
+      <c r="J104" s="14">
+        <v>1619010000</v>
+      </c>
+      <c r="K104" s="8">
+        <v>1618848000</v>
+      </c>
+      <c r="L104" s="8">
+        <v>1619020799</v>
+      </c>
+      <c r="M104" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P104" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>100</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" s="10">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W104" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="X104" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y104">
         <v>1</v>
       </c>
     </row>
@@ -9728,7 +9849,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10366,10 +10487,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD107"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
